--- a/data/origin/cars_length_procent.xlsx
+++ b/data/origin/cars_length_procent.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -460,16 +460,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8897418015457097</v>
+        <v>0.8937769826947338</v>
       </c>
       <c r="C2" t="n">
-        <v>0.06615491907257418</v>
+        <v>0.0637338103831597</v>
       </c>
       <c r="D2" t="n">
-        <v>0.03307745953628709</v>
+        <v>0.03717805605684316</v>
       </c>
       <c r="E2" t="n">
-        <v>0.01102581984542903</v>
+        <v>0.00531115086526331</v>
       </c>
     </row>
     <row r="3">
@@ -477,16 +477,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8812269512417921</v>
+        <v>0.8344706511487725</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07126382925492476</v>
+        <v>0.09931760931073649</v>
       </c>
       <c r="D3" t="n">
-        <v>0.03563191462746238</v>
+        <v>0.05793527209792962</v>
       </c>
       <c r="E3" t="n">
-        <v>0.01187730487582079</v>
+        <v>0.008276467442561376</v>
       </c>
     </row>
     <row r="4">
@@ -494,16 +494,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9179055370273528</v>
+        <v>0.9067407208329322</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04925667778358833</v>
+        <v>0.05595556750024067</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02462833889179417</v>
+        <v>0.03264074770847372</v>
       </c>
       <c r="E4" t="n">
-        <v>0.008209446297264722</v>
+        <v>0.004662963958353389</v>
       </c>
     </row>
     <row r="5">
@@ -511,16 +511,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9330013110782909</v>
+        <v>0.8552839043133201</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04019921335302547</v>
+        <v>0.08682965741200792</v>
       </c>
       <c r="D5" t="n">
-        <v>0.02009960667651274</v>
+        <v>0.05065063349033795</v>
       </c>
       <c r="E5" t="n">
-        <v>0.006699868892170913</v>
+        <v>0.007235804784333994</v>
       </c>
     </row>
     <row r="6">
@@ -528,16 +528,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.8573381256487252</v>
+        <v>0.8872245471157882</v>
       </c>
       <c r="C6" t="n">
-        <v>0.08559712461076485</v>
+        <v>0.06766527173052705</v>
       </c>
       <c r="D6" t="n">
-        <v>0.04279856230538243</v>
+        <v>0.03947140850947412</v>
       </c>
       <c r="E6" t="n">
-        <v>0.01426618743512748</v>
+        <v>0.005638772644210588</v>
       </c>
     </row>
     <row r="7">
@@ -545,16 +545,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9512351356660536</v>
+        <v>0.8196362600605656</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02925891860036786</v>
+        <v>0.1082182439636607</v>
       </c>
       <c r="D7" t="n">
-        <v>0.01462945930018393</v>
+        <v>0.06312730897880205</v>
       </c>
       <c r="E7" t="n">
-        <v>0.004876486433394645</v>
+        <v>0.009018186996971723</v>
       </c>
     </row>
     <row r="8">
@@ -562,16 +562,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.8792493930208554</v>
+        <v>0.9433557269671712</v>
       </c>
       <c r="C8" t="n">
-        <v>0.07245036418748678</v>
+        <v>0.03398656381969729</v>
       </c>
       <c r="D8" t="n">
-        <v>0.03622518209374339</v>
+        <v>0.01982549556149009</v>
       </c>
       <c r="E8" t="n">
-        <v>0.01207506069791446</v>
+        <v>0.002832213651641441</v>
       </c>
     </row>
     <row r="9">
@@ -579,16 +579,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.8879443674501033</v>
+        <v>0.8851234782354941</v>
       </c>
       <c r="C9" t="n">
-        <v>0.06723337952993802</v>
+        <v>0.06892591305870355</v>
       </c>
       <c r="D9" t="n">
-        <v>0.03361668976496901</v>
+        <v>0.04020678261757707</v>
       </c>
       <c r="E9" t="n">
-        <v>0.01120556325498967</v>
+        <v>0.005743826088225296</v>
       </c>
     </row>
     <row r="10">
@@ -596,16 +596,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.8728156681902518</v>
+        <v>0.8109714522233715</v>
       </c>
       <c r="C10" t="n">
-        <v>0.07631059908584892</v>
+        <v>0.1134171286659771</v>
       </c>
       <c r="D10" t="n">
-        <v>0.03815529954292446</v>
+        <v>0.06615999172181997</v>
       </c>
       <c r="E10" t="n">
-        <v>0.01271843318097482</v>
+        <v>0.009451427388831424</v>
       </c>
     </row>
     <row r="11">
@@ -613,16 +613,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.8686130263278175</v>
+        <v>0.9320677933436063</v>
       </c>
       <c r="C11" t="n">
-        <v>0.07883218420330952</v>
+        <v>0.04075932399383619</v>
       </c>
       <c r="D11" t="n">
-        <v>0.03941609210165476</v>
+        <v>0.02377627232973778</v>
       </c>
       <c r="E11" t="n">
-        <v>0.01313869736721826</v>
+        <v>0.003396610332819683</v>
       </c>
     </row>
     <row r="12">
@@ -630,16 +630,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.8602440905437483</v>
+        <v>0.8304516526057777</v>
       </c>
       <c r="C12" t="n">
-        <v>0.08385354567375103</v>
+        <v>0.1017290084365334</v>
       </c>
       <c r="D12" t="n">
-        <v>0.04192677283687551</v>
+        <v>0.0593419215879778</v>
       </c>
       <c r="E12" t="n">
-        <v>0.01397559094562517</v>
+        <v>0.008477417369711115</v>
       </c>
     </row>
     <row r="13">
@@ -647,16 +647,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.9158837326384367</v>
+        <v>0.8927811747324441</v>
       </c>
       <c r="C13" t="n">
-        <v>0.05046976041693798</v>
+        <v>0.06433129516053353</v>
       </c>
       <c r="D13" t="n">
-        <v>0.02523488020846899</v>
+        <v>0.03752658884364456</v>
       </c>
       <c r="E13" t="n">
-        <v>0.008411626736156331</v>
+        <v>0.005360941263377795</v>
       </c>
     </row>
     <row r="14">
@@ -664,16 +664,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.8739837582948426</v>
+        <v>0.8275273291225692</v>
       </c>
       <c r="C14" t="n">
-        <v>0.07560974502309441</v>
+        <v>0.1034836025264585</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0378048725115472</v>
+        <v>0.06036543480710077</v>
       </c>
       <c r="E14" t="n">
-        <v>0.01260162417051574</v>
+        <v>0.00862363354387154</v>
       </c>
     </row>
     <row r="15">
@@ -681,16 +681,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.8667528622975236</v>
+        <v>0.8109547907991791</v>
       </c>
       <c r="C15" t="n">
-        <v>0.07994828262148586</v>
+        <v>0.1134271255204925</v>
       </c>
       <c r="D15" t="n">
-        <v>0.03997414131074293</v>
+        <v>0.06616582322028731</v>
       </c>
       <c r="E15" t="n">
-        <v>0.01332471377024764</v>
+        <v>0.009452260460041046</v>
       </c>
     </row>
     <row r="16">
@@ -698,16 +698,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.8155032460099021</v>
+        <v>0.7893511314820728</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1106980523940587</v>
+        <v>0.1263893211107563</v>
       </c>
       <c r="D16" t="n">
-        <v>0.05534902619702937</v>
+        <v>0.07372710398127451</v>
       </c>
       <c r="E16" t="n">
-        <v>0.01844967539900979</v>
+        <v>0.01053244342589636</v>
       </c>
     </row>
     <row r="17">
@@ -715,16 +715,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.8613666446231124</v>
+        <v>0.7516513261618473</v>
       </c>
       <c r="C17" t="n">
-        <v>0.08318001322613255</v>
+        <v>0.1490092043028916</v>
       </c>
       <c r="D17" t="n">
-        <v>0.04159000661306628</v>
+        <v>0.08692203584335345</v>
       </c>
       <c r="E17" t="n">
-        <v>0.01386333553768876</v>
+        <v>0.01241743369190764</v>
       </c>
     </row>
     <row r="18">
@@ -732,16 +732,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.8701105763696823</v>
+        <v>0.8029241038530373</v>
       </c>
       <c r="C18" t="n">
-        <v>0.07793365417819065</v>
+        <v>0.1182455376881776</v>
       </c>
       <c r="D18" t="n">
-        <v>0.03896682708909532</v>
+        <v>0.06897656365143695</v>
       </c>
       <c r="E18" t="n">
-        <v>0.01298894236303177</v>
+        <v>0.009853794807348139</v>
       </c>
     </row>
     <row r="19">
@@ -749,16 +749,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.8466405489047046</v>
+        <v>0.8590908460984308</v>
       </c>
       <c r="C19" t="n">
-        <v>0.09201567065717721</v>
+        <v>0.08454549234094152</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0460078353285886</v>
+        <v>0.04931820386554922</v>
       </c>
       <c r="E19" t="n">
-        <v>0.01533594510952954</v>
+        <v>0.007045457695078462</v>
       </c>
     </row>
     <row r="20">
@@ -766,16 +766,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.9340885585923964</v>
+        <v>0.8923623562849965</v>
       </c>
       <c r="C20" t="n">
-        <v>0.03954686484456218</v>
+        <v>0.06458258622900211</v>
       </c>
       <c r="D20" t="n">
-        <v>0.01977343242228109</v>
+        <v>0.03767317530025122</v>
       </c>
       <c r="E20" t="n">
-        <v>0.006591144140760364</v>
+        <v>0.005381882185750176</v>
       </c>
     </row>
     <row r="21">
@@ -783,16 +783,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.8769656183122886</v>
+        <v>0.8029925770564588</v>
       </c>
       <c r="C21" t="n">
-        <v>0.07382062901262684</v>
+        <v>0.1182044537661247</v>
       </c>
       <c r="D21" t="n">
-        <v>0.03691031450631342</v>
+        <v>0.06895259803023943</v>
       </c>
       <c r="E21" t="n">
-        <v>0.01230343816877114</v>
+        <v>0.009850371147177062</v>
       </c>
     </row>
     <row r="22">
@@ -800,16 +800,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.8774342498335774</v>
+        <v>0.759183863949258</v>
       </c>
       <c r="C22" t="n">
-        <v>0.07353945009985353</v>
+        <v>0.1444896816304452</v>
       </c>
       <c r="D22" t="n">
-        <v>0.03676972504992677</v>
+        <v>0.08428564761775971</v>
       </c>
       <c r="E22" t="n">
-        <v>0.01225657501664226</v>
+        <v>0.0120408068025371</v>
       </c>
     </row>
     <row r="23">
@@ -817,16 +817,16 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.8195020485873572</v>
+        <v>0.9147111326391058</v>
       </c>
       <c r="C23" t="n">
-        <v>0.1082987708475857</v>
+        <v>0.05117332041653655</v>
       </c>
       <c r="D23" t="n">
-        <v>0.05414938542379284</v>
+        <v>0.02985110357631298</v>
       </c>
       <c r="E23" t="n">
-        <v>0.01804979514126428</v>
+        <v>0.004264443368044712</v>
       </c>
     </row>
     <row r="24">
@@ -834,16 +834,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.9139786986691482</v>
+        <v>0.8856328928269007</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0516127807985111</v>
+        <v>0.06862026430385956</v>
       </c>
       <c r="D24" t="n">
-        <v>0.02580639039925555</v>
+        <v>0.04002848751058474</v>
       </c>
       <c r="E24" t="n">
-        <v>0.008602130133085185</v>
+        <v>0.005718355358654965</v>
       </c>
     </row>
     <row r="25">
@@ -851,16 +851,16 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.8744575736512279</v>
+        <v>0.8626839562742011</v>
       </c>
       <c r="C25" t="n">
-        <v>0.07532545580926327</v>
+        <v>0.08238962623547931</v>
       </c>
       <c r="D25" t="n">
-        <v>0.03766272790463163</v>
+        <v>0.0480606153040296</v>
       </c>
       <c r="E25" t="n">
-        <v>0.01255424263487721</v>
+        <v>0.006865802186289943</v>
       </c>
     </row>
     <row r="26">
@@ -868,16 +868,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.8900232860915485</v>
+        <v>0.8918110412924425</v>
       </c>
       <c r="C26" t="n">
-        <v>0.06598602834507092</v>
+        <v>0.06491337522453451</v>
       </c>
       <c r="D26" t="n">
-        <v>0.03299301417253546</v>
+        <v>0.03786613554764513</v>
       </c>
       <c r="E26" t="n">
-        <v>0.01099767139084516</v>
+        <v>0.005409447935377876</v>
       </c>
     </row>
     <row r="27">
@@ -885,16 +885,16 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.8154061930033464</v>
+        <v>0.8483626991708043</v>
       </c>
       <c r="C27" t="n">
-        <v>0.1107562841979922</v>
+        <v>0.0909823804975174</v>
       </c>
       <c r="D27" t="n">
-        <v>0.05537814209899609</v>
+        <v>0.05307305529021849</v>
       </c>
       <c r="E27" t="n">
-        <v>0.01845938069966536</v>
+        <v>0.007581865041459785</v>
       </c>
     </row>
     <row r="28">
@@ -902,16 +902,16 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.8067104256040037</v>
+        <v>0.8083512652151377</v>
       </c>
       <c r="C28" t="n">
-        <v>0.1159737446375977</v>
+        <v>0.1149892408709174</v>
       </c>
       <c r="D28" t="n">
-        <v>0.05798687231879887</v>
+        <v>0.0670770571747018</v>
       </c>
       <c r="E28" t="n">
-        <v>0.01932895743959963</v>
+        <v>0.009582436739243118</v>
       </c>
     </row>
     <row r="29">
@@ -919,16 +919,16 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.8703141562670854</v>
+        <v>0.9188105949709348</v>
       </c>
       <c r="C29" t="n">
-        <v>0.07781150623974875</v>
+        <v>0.04871364301743914</v>
       </c>
       <c r="D29" t="n">
-        <v>0.03890575311987438</v>
+        <v>0.02841629176017283</v>
       </c>
       <c r="E29" t="n">
-        <v>0.01296858437329146</v>
+        <v>0.004059470251453263</v>
       </c>
     </row>
     <row r="30">
@@ -936,16 +936,16 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.8752547157701636</v>
+        <v>0.780884019380485</v>
       </c>
       <c r="C30" t="n">
-        <v>0.07484717053790187</v>
+        <v>0.131469588371709</v>
       </c>
       <c r="D30" t="n">
-        <v>0.03742358526895093</v>
+        <v>0.07669059321683024</v>
       </c>
       <c r="E30" t="n">
-        <v>0.01247452842298364</v>
+        <v>0.01095579903097575</v>
       </c>
     </row>
     <row r="31">
@@ -953,16 +953,16 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.8944174196357221</v>
+        <v>0.8828767519351862</v>
       </c>
       <c r="C31" t="n">
-        <v>0.06334954821856675</v>
+        <v>0.07027394883888827</v>
       </c>
       <c r="D31" t="n">
-        <v>0.03167477410928338</v>
+        <v>0.04099313682268482</v>
       </c>
       <c r="E31" t="n">
-        <v>0.01055825803642779</v>
+        <v>0.005856162403240689</v>
       </c>
     </row>
     <row r="32">
@@ -970,16 +970,16 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.9194055698267872</v>
+        <v>0.8465199835425155</v>
       </c>
       <c r="C32" t="n">
-        <v>0.04835665810392766</v>
+        <v>0.09208800987449073</v>
       </c>
       <c r="D32" t="n">
-        <v>0.02417832905196383</v>
+        <v>0.05371800576011959</v>
       </c>
       <c r="E32" t="n">
-        <v>0.008059443017321278</v>
+        <v>0.007674000822874227</v>
       </c>
     </row>
     <row r="33">
@@ -987,16 +987,16 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.8739521720849529</v>
+        <v>0.8791939264232738</v>
       </c>
       <c r="C33" t="n">
-        <v>0.07562869674902825</v>
+        <v>0.07248364414603574</v>
       </c>
       <c r="D33" t="n">
-        <v>0.03781434837451413</v>
+        <v>0.04228212575185418</v>
       </c>
       <c r="E33" t="n">
-        <v>0.01260478279150471</v>
+        <v>0.006040303678836312</v>
       </c>
     </row>
     <row r="34">
@@ -1004,16 +1004,16 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.9053765818073867</v>
+        <v>0.8784155067536015</v>
       </c>
       <c r="C34" t="n">
-        <v>0.056774050915568</v>
+        <v>0.07295069594783911</v>
       </c>
       <c r="D34" t="n">
-        <v>0.028387025457784</v>
+        <v>0.04255457263623948</v>
       </c>
       <c r="E34" t="n">
-        <v>0.009462341819261333</v>
+        <v>0.006079224662319927</v>
       </c>
     </row>
     <row r="35">
@@ -1021,16 +1021,16 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.8523390249263108</v>
+        <v>0.8669046272718327</v>
       </c>
       <c r="C35" t="n">
-        <v>0.08859658504421354</v>
+        <v>0.07985722363690037</v>
       </c>
       <c r="D35" t="n">
-        <v>0.04429829252210677</v>
+        <v>0.04658338045485855</v>
       </c>
       <c r="E35" t="n">
-        <v>0.01476609750736893</v>
+        <v>0.006654768636408365</v>
       </c>
     </row>
     <row r="36">
@@ -1038,16 +1038,16 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.8466777932941243</v>
+        <v>0.8736739750381866</v>
       </c>
       <c r="C36" t="n">
-        <v>0.09199332402352542</v>
+        <v>0.07579561497708806</v>
       </c>
       <c r="D36" t="n">
-        <v>0.04599666201176271</v>
+        <v>0.0442141087366347</v>
       </c>
       <c r="E36" t="n">
-        <v>0.01533222067058757</v>
+        <v>0.006316301248090673</v>
       </c>
     </row>
     <row r="37">
@@ -1055,16 +1055,16 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.8741123143620181</v>
+        <v>0.8417646693154562</v>
       </c>
       <c r="C37" t="n">
-        <v>0.07553261138278915</v>
+        <v>0.09494119841072625</v>
       </c>
       <c r="D37" t="n">
-        <v>0.03776630569139457</v>
+        <v>0.05538236573959032</v>
       </c>
       <c r="E37" t="n">
-        <v>0.01258876856379819</v>
+        <v>0.007911766534227189</v>
       </c>
     </row>
     <row r="38">
@@ -1072,16 +1072,16 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.9347125919260997</v>
+        <v>0.8878533901006549</v>
       </c>
       <c r="C38" t="n">
-        <v>0.03917244484434019</v>
+        <v>0.06728796593960706</v>
       </c>
       <c r="D38" t="n">
-        <v>0.01958622242217009</v>
+        <v>0.03925131346477079</v>
       </c>
       <c r="E38" t="n">
-        <v>0.006528740807390032</v>
+        <v>0.005607330494967255</v>
       </c>
     </row>
     <row r="39">
@@ -1089,16 +1089,16 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.8944892401814648</v>
+        <v>0.8702631414388954</v>
       </c>
       <c r="C39" t="n">
-        <v>0.06330645589112112</v>
+        <v>0.07784211513666277</v>
       </c>
       <c r="D39" t="n">
-        <v>0.03165322794556056</v>
+        <v>0.04540790049638661</v>
       </c>
       <c r="E39" t="n">
-        <v>0.01055107598185352</v>
+        <v>0.006486842928055231</v>
       </c>
     </row>
     <row r="40">
@@ -1106,16 +1106,16 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.935075821757263</v>
+        <v>0.826364890328695</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0389545069456422</v>
+        <v>0.104181065802783</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0194772534728211</v>
+        <v>0.06077228838495675</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0064924178242737</v>
+        <v>0.008681755483565251</v>
       </c>
     </row>
     <row r="41">
@@ -1123,16 +1123,16 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.8333396323729549</v>
+        <v>0.730420679628251</v>
       </c>
       <c r="C41" t="n">
-        <v>0.09999622057622704</v>
+        <v>0.1617475922230494</v>
       </c>
       <c r="D41" t="n">
-        <v>0.04999811028811352</v>
+        <v>0.09435276213011215</v>
       </c>
       <c r="E41" t="n">
-        <v>0.01666603676270451</v>
+        <v>0.01347896601858745</v>
       </c>
     </row>
     <row r="42">
@@ -1140,16 +1140,16 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.8528906113344514</v>
+        <v>0.8788795923016507</v>
       </c>
       <c r="C42" t="n">
-        <v>0.08826563319932913</v>
+        <v>0.07267224461900958</v>
       </c>
       <c r="D42" t="n">
-        <v>0.04413281659966457</v>
+        <v>0.04239214269442226</v>
       </c>
       <c r="E42" t="n">
-        <v>0.01471093886655486</v>
+        <v>0.006056020384917466</v>
       </c>
     </row>
     <row r="43">
@@ -1157,16 +1157,16 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.9223181904822284</v>
+        <v>0.8678789761112844</v>
       </c>
       <c r="C43" t="n">
-        <v>0.04660908571066295</v>
+        <v>0.07927261433322937</v>
       </c>
       <c r="D43" t="n">
-        <v>0.02330454285533148</v>
+        <v>0.04624235836105046</v>
       </c>
       <c r="E43" t="n">
-        <v>0.00776818095177716</v>
+        <v>0.006606051194435781</v>
       </c>
     </row>
     <row r="44">
@@ -1174,16 +1174,16 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.8838330103852218</v>
+        <v>0.9204518275805705</v>
       </c>
       <c r="C44" t="n">
-        <v>0.06970019376886694</v>
+        <v>0.04772890345165768</v>
       </c>
       <c r="D44" t="n">
-        <v>0.03485009688443347</v>
+        <v>0.02784186034680031</v>
       </c>
       <c r="E44" t="n">
-        <v>0.01161669896147782</v>
+        <v>0.003977408620971473</v>
       </c>
     </row>
     <row r="45">
@@ -1191,16 +1191,16 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.9351632330570102</v>
+        <v>0.8153597312649346</v>
       </c>
       <c r="C45" t="n">
-        <v>0.03890206016579387</v>
+        <v>0.1107841612410393</v>
       </c>
       <c r="D45" t="n">
-        <v>0.01945103008289694</v>
+        <v>0.0646240940572729</v>
       </c>
       <c r="E45" t="n">
-        <v>0.006483676694298979</v>
+        <v>0.009232013436753273</v>
       </c>
     </row>
     <row r="46">
@@ -1208,16 +1208,16 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.857964905967505</v>
+        <v>0.9235526760249848</v>
       </c>
       <c r="C46" t="n">
-        <v>0.08522105641949702</v>
+        <v>0.04586839438500911</v>
       </c>
       <c r="D46" t="n">
-        <v>0.04261052820974851</v>
+        <v>0.02675656339125532</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0142035094032495</v>
+        <v>0.00382236619875076</v>
       </c>
     </row>
     <row r="47">
@@ -1225,16 +1225,16 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.876505362938686</v>
+        <v>0.8221696902825861</v>
       </c>
       <c r="C47" t="n">
-        <v>0.07409678223678841</v>
+        <v>0.1066981858304483</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0370483911183942</v>
+        <v>0.06224060840109485</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0123494637061314</v>
+        <v>0.008891515485870694</v>
       </c>
     </row>
     <row r="48">
@@ -1242,16 +1242,16 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.8749310098634077</v>
+        <v>0.8681000886631918</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0750413940819554</v>
+        <v>0.07913994680208493</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0375206970409777</v>
+        <v>0.04616496896788288</v>
       </c>
       <c r="E48" t="n">
-        <v>0.01250689901365924</v>
+        <v>0.006594995566840412</v>
       </c>
     </row>
     <row r="49">
@@ -1259,16 +1259,16 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.8738442751776597</v>
+        <v>0.9221470022456094</v>
       </c>
       <c r="C49" t="n">
-        <v>0.07569343489340416</v>
+        <v>0.04671179865263435</v>
       </c>
       <c r="D49" t="n">
-        <v>0.03784671744670208</v>
+        <v>0.0272485492140367</v>
       </c>
       <c r="E49" t="n">
-        <v>0.01261557248223403</v>
+        <v>0.00389264988771953</v>
       </c>
     </row>
     <row r="50">
@@ -1276,16 +1276,16 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.8907931593332685</v>
+        <v>0.8475242103262016</v>
       </c>
       <c r="C50" t="n">
-        <v>0.06552410440003888</v>
+        <v>0.09148547380427903</v>
       </c>
       <c r="D50" t="n">
-        <v>0.03276205220001944</v>
+        <v>0.05336652638582943</v>
       </c>
       <c r="E50" t="n">
-        <v>0.01092068406667315</v>
+        <v>0.007623789483689919</v>
       </c>
     </row>
     <row r="51">
@@ -1293,16 +1293,16 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.95376091402668</v>
+        <v>0.8890751748749793</v>
       </c>
       <c r="C51" t="n">
-        <v>0.02774345158399203</v>
+        <v>0.0665548950750124</v>
       </c>
       <c r="D51" t="n">
-        <v>0.01387172579199601</v>
+        <v>0.03882368879375723</v>
       </c>
       <c r="E51" t="n">
-        <v>0.004623908597332005</v>
+        <v>0.005546241256251034</v>
       </c>
     </row>
     <row r="52">
@@ -1310,16 +1310,16 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.9490460504909519</v>
+        <v>0.8798537204477569</v>
       </c>
       <c r="C52" t="n">
-        <v>0.03057236970542885</v>
+        <v>0.07208776773134586</v>
       </c>
       <c r="D52" t="n">
-        <v>0.01528618485271442</v>
+        <v>0.04205119784328509</v>
       </c>
       <c r="E52" t="n">
-        <v>0.005095394950904809</v>
+        <v>0.006007313977612156</v>
       </c>
     </row>
     <row r="53">
@@ -1327,16 +1327,16 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.8565065065013355</v>
+        <v>0.8587639879417031</v>
       </c>
       <c r="C53" t="n">
-        <v>0.08609609609919867</v>
+        <v>0.08474160723497816</v>
       </c>
       <c r="D53" t="n">
-        <v>0.04304804804959934</v>
+        <v>0.04943260422040393</v>
       </c>
       <c r="E53" t="n">
-        <v>0.01434934934986645</v>
+        <v>0.007061800602914847</v>
       </c>
     </row>
     <row r="54">
@@ -1344,16 +1344,16 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.9117225965519697</v>
+        <v>0.9306002368759806</v>
       </c>
       <c r="C54" t="n">
-        <v>0.05296644206881816</v>
+        <v>0.04163985787441164</v>
       </c>
       <c r="D54" t="n">
-        <v>0.02648322103440908</v>
+        <v>0.02428991709340679</v>
       </c>
       <c r="E54" t="n">
-        <v>0.008827740344803025</v>
+        <v>0.003469988156200971</v>
       </c>
     </row>
     <row r="55">
@@ -1361,16 +1361,16 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.8369547478052518</v>
+        <v>0.9575169679578842</v>
       </c>
       <c r="C55" t="n">
-        <v>0.09782715131684891</v>
+        <v>0.02548981922526947</v>
       </c>
       <c r="D55" t="n">
-        <v>0.04891357565842445</v>
+        <v>0.01486906121474053</v>
       </c>
       <c r="E55" t="n">
-        <v>0.01630452521947482</v>
+        <v>0.00212415160210579</v>
       </c>
     </row>
     <row r="56">
@@ -1378,16 +1378,16 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.9124830154220525</v>
+        <v>0.8631575802624823</v>
       </c>
       <c r="C56" t="n">
-        <v>0.05251019074676853</v>
+        <v>0.08210545184251059</v>
       </c>
       <c r="D56" t="n">
-        <v>0.02625509537338426</v>
+        <v>0.04789484690813117</v>
       </c>
       <c r="E56" t="n">
-        <v>0.008751698457794754</v>
+        <v>0.006842120986875883</v>
       </c>
     </row>
     <row r="57">
@@ -1395,16 +1395,16 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.8671003706192865</v>
+        <v>0.8251196224064886</v>
       </c>
       <c r="C57" t="n">
-        <v>0.07973977762842811</v>
+        <v>0.1049282265561068</v>
       </c>
       <c r="D57" t="n">
-        <v>0.03986988881421406</v>
+        <v>0.06120813215772898</v>
       </c>
       <c r="E57" t="n">
-        <v>0.01328996293807135</v>
+        <v>0.008744018879675569</v>
       </c>
     </row>
     <row r="58">
@@ -1412,16 +1412,16 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.8359717027154756</v>
+        <v>0.8522123437970864</v>
       </c>
       <c r="C58" t="n">
-        <v>0.09841697837071463</v>
+        <v>0.08867259372174814</v>
       </c>
       <c r="D58" t="n">
-        <v>0.04920848918535731</v>
+        <v>0.05172567967101974</v>
       </c>
       <c r="E58" t="n">
-        <v>0.01640282972845244</v>
+        <v>0.007389382810145679</v>
       </c>
     </row>
     <row r="59">
@@ -1429,16 +1429,16 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.8712340747444147</v>
+        <v>0.8436125135954192</v>
       </c>
       <c r="C59" t="n">
-        <v>0.07725955515335116</v>
+        <v>0.09383249184274846</v>
       </c>
       <c r="D59" t="n">
-        <v>0.03862977757667558</v>
+        <v>0.05473562024160327</v>
       </c>
       <c r="E59" t="n">
-        <v>0.01287659252555853</v>
+        <v>0.00781937432022904</v>
       </c>
     </row>
     <row r="60">
@@ -1446,16 +1446,16 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.9001677498666749</v>
+        <v>0.8295334267098925</v>
       </c>
       <c r="C60" t="n">
-        <v>0.05989935007999505</v>
+        <v>0.1022799439740645</v>
       </c>
       <c r="D60" t="n">
-        <v>0.02994967503999752</v>
+        <v>0.05966330065153762</v>
       </c>
       <c r="E60" t="n">
-        <v>0.009983225013332509</v>
+        <v>0.008523328664505376</v>
       </c>
     </row>
     <row r="61">
@@ -1463,16 +1463,16 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.8494996944514011</v>
+        <v>0.8105670068185017</v>
       </c>
       <c r="C61" t="n">
-        <v>0.09030018332915936</v>
+        <v>0.113659795908899</v>
       </c>
       <c r="D61" t="n">
-        <v>0.04515009166457968</v>
+        <v>0.0663015476135244</v>
       </c>
       <c r="E61" t="n">
-        <v>0.01505003055485989</v>
+        <v>0.009471649659074917</v>
       </c>
     </row>
     <row r="62">
@@ -1480,16 +1480,16 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.93909973394975</v>
+        <v>0.8956841408292845</v>
       </c>
       <c r="C62" t="n">
-        <v>0.03654015963015</v>
+        <v>0.0625895155024293</v>
       </c>
       <c r="D62" t="n">
-        <v>0.018270079815075</v>
+        <v>0.03651055070975043</v>
       </c>
       <c r="E62" t="n">
-        <v>0.006090026605025001</v>
+        <v>0.005215792958535775</v>
       </c>
     </row>
     <row r="63">
@@ -1497,16 +1497,16 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.8554037915344623</v>
+        <v>0.8713942707212773</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0867577250793226</v>
+        <v>0.07716343756723362</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0433788625396613</v>
+        <v>0.04501200524755294</v>
       </c>
       <c r="E63" t="n">
-        <v>0.01445962084655377</v>
+        <v>0.006430286463936136</v>
       </c>
     </row>
     <row r="64">
@@ -1514,16 +1514,16 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.9027115620879654</v>
+        <v>0.8716972713224985</v>
       </c>
       <c r="C64" t="n">
-        <v>0.05837306274722073</v>
+        <v>0.07698163720650088</v>
       </c>
       <c r="D64" t="n">
-        <v>0.02918653137361037</v>
+        <v>0.04490595503712552</v>
       </c>
       <c r="E64" t="n">
-        <v>0.009728843791203458</v>
+        <v>0.006415136433875074</v>
       </c>
     </row>
     <row r="65">
@@ -1531,16 +1531,16 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.8585838796936657</v>
+        <v>0.8432766530839596</v>
       </c>
       <c r="C65" t="n">
-        <v>0.08484967218380059</v>
+        <v>0.09403400814962423</v>
       </c>
       <c r="D65" t="n">
-        <v>0.04242483609190029</v>
+        <v>0.05485317142061413</v>
       </c>
       <c r="E65" t="n">
-        <v>0.01414161203063343</v>
+        <v>0.00783616734580202</v>
       </c>
     </row>
     <row r="66">
@@ -1548,16 +1548,16 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.9228965396502343</v>
+        <v>0.8858590202829564</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0462620762098594</v>
+        <v>0.06848458783022617</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0231310381049297</v>
+        <v>0.03994934290096527</v>
       </c>
       <c r="E66" t="n">
-        <v>0.007710346034976568</v>
+        <v>0.005707048985852181</v>
       </c>
     </row>
     <row r="67">
@@ -1565,16 +1565,16 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.9195653229629445</v>
+        <v>0.8507214140829342</v>
       </c>
       <c r="C67" t="n">
-        <v>0.04826080622223332</v>
+        <v>0.08956715155023946</v>
       </c>
       <c r="D67" t="n">
-        <v>0.02413040311111666</v>
+        <v>0.05224750507097302</v>
       </c>
       <c r="E67" t="n">
-        <v>0.008043467703705554</v>
+        <v>0.007463929295853289</v>
       </c>
     </row>
     <row r="68">
@@ -1582,16 +1582,16 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.9064386846678029</v>
+        <v>0.9098355676904739</v>
       </c>
       <c r="C68" t="n">
-        <v>0.05613678919931828</v>
+        <v>0.05409865938571565</v>
       </c>
       <c r="D68" t="n">
-        <v>0.02806839459965914</v>
+        <v>0.03155755130833413</v>
       </c>
       <c r="E68" t="n">
-        <v>0.009356131533219713</v>
+        <v>0.004508221615476304</v>
       </c>
     </row>
     <row r="69">
@@ -1599,16 +1599,16 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.8800106667044176</v>
+        <v>0.8700385059362552</v>
       </c>
       <c r="C69" t="n">
-        <v>0.07199359997734942</v>
+        <v>0.07797689643824687</v>
       </c>
       <c r="D69" t="n">
-        <v>0.03599679998867471</v>
+        <v>0.04548652292231067</v>
       </c>
       <c r="E69" t="n">
-        <v>0.01199893332955824</v>
+        <v>0.006498074703187241</v>
       </c>
     </row>
     <row r="70">
@@ -1616,16 +1616,16 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.8360636879631063</v>
+        <v>0.7934285911601259</v>
       </c>
       <c r="C70" t="n">
-        <v>0.09836178722213625</v>
+        <v>0.1239428453039245</v>
       </c>
       <c r="D70" t="n">
-        <v>0.04918089361106812</v>
+        <v>0.07229999309395593</v>
       </c>
       <c r="E70" t="n">
-        <v>0.01639363120368937</v>
+        <v>0.01032857044199371</v>
       </c>
     </row>
     <row r="71">
@@ -1633,16 +1633,16 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.9611902337081902</v>
+        <v>0.8649876037092777</v>
       </c>
       <c r="C71" t="n">
-        <v>0.02328585977508586</v>
+        <v>0.08100743777443335</v>
       </c>
       <c r="D71" t="n">
-        <v>0.01164292988754293</v>
+        <v>0.04725433870175279</v>
       </c>
       <c r="E71" t="n">
-        <v>0.003880976629180977</v>
+        <v>0.006750619814536113</v>
       </c>
     </row>
     <row r="72">
@@ -1650,16 +1650,16 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.872070121719932</v>
+        <v>0.8615654921691707</v>
       </c>
       <c r="C72" t="n">
-        <v>0.07675792696804078</v>
+        <v>0.08306070469849759</v>
       </c>
       <c r="D72" t="n">
-        <v>0.03837896348402039</v>
+        <v>0.04845207774079027</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0127929878280068</v>
+        <v>0.006921725391541467</v>
       </c>
     </row>
     <row r="73">
@@ -1667,16 +1667,16 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.8654647785768074</v>
+        <v>0.8317262152832003</v>
       </c>
       <c r="C73" t="n">
-        <v>0.08072113285391558</v>
+        <v>0.1009642708300798</v>
       </c>
       <c r="D73" t="n">
-        <v>0.04036056642695779</v>
+        <v>0.05889582465087988</v>
       </c>
       <c r="E73" t="n">
-        <v>0.01345352214231926</v>
+        <v>0.008413689235839983</v>
       </c>
     </row>
     <row r="74">
@@ -1684,16 +1684,16 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.8167328451187339</v>
+        <v>0.8597357833954712</v>
       </c>
       <c r="C74" t="n">
-        <v>0.1099602929287597</v>
+        <v>0.08415852996271729</v>
       </c>
       <c r="D74" t="n">
-        <v>0.05498014646437983</v>
+        <v>0.04909247581158508</v>
       </c>
       <c r="E74" t="n">
-        <v>0.01832671548812661</v>
+        <v>0.007013210830226441</v>
       </c>
     </row>
     <row r="75">
@@ -1701,16 +1701,16 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.9131895934029525</v>
+        <v>0.8845134258628206</v>
       </c>
       <c r="C75" t="n">
-        <v>0.05208624395822851</v>
+        <v>0.06929194448230766</v>
       </c>
       <c r="D75" t="n">
-        <v>0.02604312197911426</v>
+        <v>0.0404203009480128</v>
       </c>
       <c r="E75" t="n">
-        <v>0.008681040659704754</v>
+        <v>0.005774328706858973</v>
       </c>
     </row>
     <row r="76">
@@ -1718,16 +1718,16 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.8509850041538661</v>
+        <v>0.8256050747845184</v>
       </c>
       <c r="C76" t="n">
-        <v>0.08940899750768032</v>
+        <v>0.104636955129289</v>
       </c>
       <c r="D76" t="n">
-        <v>0.04470449875384016</v>
+        <v>0.06103822382541856</v>
       </c>
       <c r="E76" t="n">
-        <v>0.01490149958461339</v>
+        <v>0.008719746260774082</v>
       </c>
     </row>
     <row r="77">
@@ -1735,16 +1735,16 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.9159359978977487</v>
+        <v>0.8678256755278579</v>
       </c>
       <c r="C77" t="n">
-        <v>0.05043840126135078</v>
+        <v>0.07930459468328523</v>
       </c>
       <c r="D77" t="n">
-        <v>0.02521920063067539</v>
+        <v>0.04626101356524972</v>
       </c>
       <c r="E77" t="n">
-        <v>0.008406400210225129</v>
+        <v>0.006608716223607103</v>
       </c>
     </row>
     <row r="78">
@@ -1752,16 +1752,16 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.8143176807572295</v>
+        <v>0.8597443918304091</v>
       </c>
       <c r="C78" t="n">
-        <v>0.1114093915456623</v>
+        <v>0.08415336490175455</v>
       </c>
       <c r="D78" t="n">
-        <v>0.05570469577283114</v>
+        <v>0.04908946285935682</v>
       </c>
       <c r="E78" t="n">
-        <v>0.01856823192427704</v>
+        <v>0.007012780408479547</v>
       </c>
     </row>
     <row r="79">
@@ -1769,16 +1769,16 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.8359776576091767</v>
+        <v>0.8951133959655169</v>
       </c>
       <c r="C79" t="n">
-        <v>0.09841340543449395</v>
+        <v>0.06293196242068988</v>
       </c>
       <c r="D79" t="n">
-        <v>0.04920670271724698</v>
+        <v>0.0367103114120691</v>
       </c>
       <c r="E79" t="n">
-        <v>0.01640223423908233</v>
+        <v>0.005244330201724157</v>
       </c>
     </row>
     <row r="80">
@@ -1786,16 +1786,16 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.9073411978711565</v>
+        <v>0.802273812273284</v>
       </c>
       <c r="C80" t="n">
-        <v>0.05559528127730608</v>
+        <v>0.1186357126360296</v>
       </c>
       <c r="D80" t="n">
-        <v>0.02779764063865304</v>
+        <v>0.0692041657043506</v>
       </c>
       <c r="E80" t="n">
-        <v>0.009265880212884348</v>
+        <v>0.009886309386335801</v>
       </c>
     </row>
     <row r="81">
@@ -1803,16 +1803,16 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.9327202016132145</v>
+        <v>0.9201848709085709</v>
       </c>
       <c r="C81" t="n">
-        <v>0.04036787903207133</v>
+        <v>0.04788907745485744</v>
       </c>
       <c r="D81" t="n">
-        <v>0.02018393951603566</v>
+        <v>0.02793529518200017</v>
       </c>
       <c r="E81" t="n">
-        <v>0.006727979838678556</v>
+        <v>0.003990756454571454</v>
       </c>
     </row>
     <row r="82">
@@ -1820,16 +1820,16 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.9306788109478084</v>
+        <v>0.7768293866456684</v>
       </c>
       <c r="C82" t="n">
-        <v>0.04159271343131499</v>
+        <v>0.133902368012599</v>
       </c>
       <c r="D82" t="n">
-        <v>0.02079635671565749</v>
+        <v>0.07810971467401606</v>
       </c>
       <c r="E82" t="n">
-        <v>0.006932118905219165</v>
+        <v>0.01115853066771658</v>
       </c>
     </row>
     <row r="83">
@@ -1837,16 +1837,16 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.9083104866242944</v>
+        <v>0.8034849701888011</v>
       </c>
       <c r="C83" t="n">
-        <v>0.05501370802542338</v>
+        <v>0.1179090178867194</v>
       </c>
       <c r="D83" t="n">
-        <v>0.02750685401271169</v>
+        <v>0.06878026043391963</v>
       </c>
       <c r="E83" t="n">
-        <v>0.009168951337570563</v>
+        <v>0.009825751490559947</v>
       </c>
     </row>
     <row r="84">
@@ -1854,16 +1854,16 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.8145617874889762</v>
+        <v>0.9369489739814412</v>
       </c>
       <c r="C84" t="n">
-        <v>0.1112629275066143</v>
+        <v>0.0378306156111353</v>
       </c>
       <c r="D84" t="n">
-        <v>0.05563146375330713</v>
+        <v>0.02206785910649559</v>
       </c>
       <c r="E84" t="n">
-        <v>0.01854382125110238</v>
+        <v>0.003152551300927942</v>
       </c>
     </row>
     <row r="85">
@@ -1871,16 +1871,16 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.7804636065227399</v>
+        <v>0.856211329353269</v>
       </c>
       <c r="C85" t="n">
-        <v>0.131721836086356</v>
+        <v>0.08627320238803857</v>
       </c>
       <c r="D85" t="n">
-        <v>0.06586091804317802</v>
+        <v>0.05032603472635583</v>
       </c>
       <c r="E85" t="n">
-        <v>0.02195363934772601</v>
+        <v>0.007189433532336548</v>
       </c>
     </row>
     <row r="86">
@@ -1888,16 +1888,16 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.8125955252125217</v>
+        <v>0.8376056534185294</v>
       </c>
       <c r="C86" t="n">
-        <v>0.112442684872487</v>
+        <v>0.09743660794888233</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0562213424362435</v>
+        <v>0.0568380213035147</v>
       </c>
       <c r="E86" t="n">
-        <v>0.01874044747874784</v>
+        <v>0.008119717329073529</v>
       </c>
     </row>
     <row r="87">
@@ -1905,16 +1905,16 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.803036289793264</v>
+        <v>0.8359998222802771</v>
       </c>
       <c r="C87" t="n">
-        <v>0.1181782261240416</v>
+        <v>0.09840010663183371</v>
       </c>
       <c r="D87" t="n">
-        <v>0.05908911306202079</v>
+        <v>0.057400062201903</v>
       </c>
       <c r="E87" t="n">
-        <v>0.0196963710206736</v>
+        <v>0.008200008885986144</v>
       </c>
     </row>
     <row r="88">
@@ -1922,16 +1922,16 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.8871296700266618</v>
+        <v>0.8632414607124194</v>
       </c>
       <c r="C88" t="n">
-        <v>0.06772219798400293</v>
+        <v>0.08205512357254838</v>
       </c>
       <c r="D88" t="n">
-        <v>0.03386109899200147</v>
+        <v>0.04786548875065322</v>
       </c>
       <c r="E88" t="n">
-        <v>0.01128703299733382</v>
+        <v>0.006837926964379033</v>
       </c>
     </row>
     <row r="89">
@@ -1939,16 +1939,16 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.9130947323597151</v>
+        <v>0.8786997305547619</v>
       </c>
       <c r="C89" t="n">
-        <v>0.05214316058417096</v>
+        <v>0.07278016166714285</v>
       </c>
       <c r="D89" t="n">
-        <v>0.02607158029208548</v>
+        <v>0.04245509430583333</v>
       </c>
       <c r="E89" t="n">
-        <v>0.008690526764028495</v>
+        <v>0.006065013472261904</v>
       </c>
     </row>
     <row r="90">
@@ -1956,16 +1956,16 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.9051119986923035</v>
+        <v>0.8319488320665324</v>
       </c>
       <c r="C90" t="n">
-        <v>0.05693280078461788</v>
+        <v>0.1008307007600806</v>
       </c>
       <c r="D90" t="n">
-        <v>0.02846640039230894</v>
+        <v>0.05881790877671367</v>
       </c>
       <c r="E90" t="n">
-        <v>0.009488800130769649</v>
+        <v>0.008402558396673383</v>
       </c>
     </row>
     <row r="91">
@@ -1973,16 +1973,16 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.8995171771196433</v>
+        <v>0.8536536418991197</v>
       </c>
       <c r="C91" t="n">
-        <v>0.06028969372821402</v>
+        <v>0.08780781486052815</v>
       </c>
       <c r="D91" t="n">
-        <v>0.03014484686410701</v>
+        <v>0.05122122533530809</v>
       </c>
       <c r="E91" t="n">
-        <v>0.01004828228803567</v>
+        <v>0.007317317905044013</v>
       </c>
     </row>
     <row r="92">
@@ -1990,16 +1990,16 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.9129763993365019</v>
+        <v>0.8225368556025849</v>
       </c>
       <c r="C92" t="n">
-        <v>0.05221416039809888</v>
+        <v>0.106477886638449</v>
       </c>
       <c r="D92" t="n">
-        <v>0.02610708019904944</v>
+        <v>0.06211210053909526</v>
       </c>
       <c r="E92" t="n">
-        <v>0.008702360066349812</v>
+        <v>0.008873157219870753</v>
       </c>
     </row>
     <row r="93">
@@ -2007,16 +2007,16 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.7626229338075561</v>
+        <v>0.8854448709134463</v>
       </c>
       <c r="C93" t="n">
-        <v>0.1424262397154663</v>
+        <v>0.06873307745193225</v>
       </c>
       <c r="D93" t="n">
-        <v>0.07121311985773317</v>
+        <v>0.04009429518029381</v>
       </c>
       <c r="E93" t="n">
-        <v>0.02373770661924439</v>
+        <v>0.005727756454327687</v>
       </c>
     </row>
     <row r="94">
@@ -2024,16 +2024,16 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.905784607790991</v>
+        <v>0.8799385125904032</v>
       </c>
       <c r="C94" t="n">
-        <v>0.05652923532540539</v>
+        <v>0.07203689244575806</v>
       </c>
       <c r="D94" t="n">
-        <v>0.02826461766270269</v>
+        <v>0.04202152059335887</v>
       </c>
       <c r="E94" t="n">
-        <v>0.0094215392209009</v>
+        <v>0.006003074370479838</v>
       </c>
     </row>
     <row r="95">
@@ -2041,16 +2041,16 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.8629277408094301</v>
+        <v>0.8823419504334882</v>
       </c>
       <c r="C95" t="n">
-        <v>0.08224335551434192</v>
+        <v>0.07059482973990709</v>
       </c>
       <c r="D95" t="n">
-        <v>0.04112167775717096</v>
+        <v>0.04118031734827914</v>
       </c>
       <c r="E95" t="n">
-        <v>0.01370722591905699</v>
+        <v>0.005882902478325592</v>
       </c>
     </row>
     <row r="96">
@@ -2058,16 +2058,16 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.9135188867362627</v>
+        <v>0.7828977318258438</v>
       </c>
       <c r="C96" t="n">
-        <v>0.05188866795824238</v>
+        <v>0.1302613609044937</v>
       </c>
       <c r="D96" t="n">
-        <v>0.02594433397912119</v>
+        <v>0.07598579386095468</v>
       </c>
       <c r="E96" t="n">
-        <v>0.008648111326373732</v>
+        <v>0.01085511340870781</v>
       </c>
     </row>
     <row r="97">
@@ -2075,16 +2075,16 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.9013327818105487</v>
+        <v>0.7858780711225067</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0592003309136708</v>
+        <v>0.1284731573264959</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0296001654568354</v>
+        <v>0.07494267510712263</v>
       </c>
       <c r="E97" t="n">
-        <v>0.009866721818945136</v>
+        <v>0.01070609644387466</v>
       </c>
     </row>
     <row r="98">
@@ -2092,16 +2092,16 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.8482306053483799</v>
+        <v>0.8545977240202002</v>
       </c>
       <c r="C98" t="n">
-        <v>0.09106163679097205</v>
+        <v>0.08724136558787988</v>
       </c>
       <c r="D98" t="n">
-        <v>0.04553081839548603</v>
+        <v>0.05089079659292994</v>
       </c>
       <c r="E98" t="n">
-        <v>0.01517693946516201</v>
+        <v>0.007270113798989991</v>
       </c>
     </row>
     <row r="99">
@@ -2109,16 +2109,16 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.8770768116641159</v>
+        <v>0.8521025361993155</v>
       </c>
       <c r="C99" t="n">
-        <v>0.07375391300153046</v>
+        <v>0.08873847828041068</v>
       </c>
       <c r="D99" t="n">
-        <v>0.03687695650076523</v>
+        <v>0.05176411233023956</v>
       </c>
       <c r="E99" t="n">
-        <v>0.01229231883358841</v>
+        <v>0.007394873190034224</v>
       </c>
     </row>
     <row r="100">
@@ -2126,16 +2126,16 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.8836168748567668</v>
+        <v>0.9150306384143028</v>
       </c>
       <c r="C100" t="n">
-        <v>0.06982987508593994</v>
+        <v>0.05098161695141834</v>
       </c>
       <c r="D100" t="n">
-        <v>0.03491493754296997</v>
+        <v>0.02973927655499403</v>
       </c>
       <c r="E100" t="n">
-        <v>0.01163831251432332</v>
+        <v>0.004248468079284862</v>
       </c>
     </row>
     <row r="101">
@@ -2143,16 +2143,16 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.865691357570727</v>
+        <v>0.8572163906833291</v>
       </c>
       <c r="C101" t="n">
-        <v>0.08058518545756378</v>
+        <v>0.08567016559000253</v>
       </c>
       <c r="D101" t="n">
-        <v>0.04029259272878189</v>
+        <v>0.04997426326083481</v>
       </c>
       <c r="E101" t="n">
-        <v>0.0134308642429273</v>
+        <v>0.007139180465833545</v>
       </c>
     </row>
     <row r="102">
@@ -2160,16 +2160,16 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>0.942311289658706</v>
+        <v>0.8212736419615685</v>
       </c>
       <c r="C102" t="n">
-        <v>0.03461322620477638</v>
+        <v>0.1072358148230589</v>
       </c>
       <c r="D102" t="n">
-        <v>0.01730661310238819</v>
+        <v>0.06255422531345102</v>
       </c>
       <c r="E102" t="n">
-        <v>0.005768871034129397</v>
+        <v>0.008936317901921577</v>
       </c>
     </row>
     <row r="103">
@@ -2177,16 +2177,16 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>0.8491852822997201</v>
+        <v>0.7909085316472917</v>
       </c>
       <c r="C103" t="n">
-        <v>0.09048883062016792</v>
+        <v>0.125454881011625</v>
       </c>
       <c r="D103" t="n">
-        <v>0.04524441531008396</v>
+        <v>0.07318201392344791</v>
       </c>
       <c r="E103" t="n">
-        <v>0.01508147177002799</v>
+        <v>0.01045457341763542</v>
       </c>
     </row>
     <row r="104">
@@ -2194,16 +2194,16 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>0.7926450441562432</v>
+        <v>0.7964083446741667</v>
       </c>
       <c r="C104" t="n">
-        <v>0.1244129735062541</v>
+        <v>0.1221549931955</v>
       </c>
       <c r="D104" t="n">
-        <v>0.06220648675312705</v>
+        <v>0.07125707936404166</v>
       </c>
       <c r="E104" t="n">
-        <v>0.02073549558437569</v>
+        <v>0.01017958276629167</v>
       </c>
     </row>
     <row r="105">
@@ -2211,16 +2211,16 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>0.8033577099795672</v>
+        <v>0.8236945440118451</v>
       </c>
       <c r="C105" t="n">
-        <v>0.1179853740122597</v>
+        <v>0.105783273592893</v>
       </c>
       <c r="D105" t="n">
-        <v>0.05899268700612983</v>
+        <v>0.06170690959585422</v>
       </c>
       <c r="E105" t="n">
-        <v>0.01966422900204328</v>
+        <v>0.008815272799407747</v>
       </c>
     </row>
     <row r="106">
@@ -2228,16 +2228,16 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>0.92965457213561</v>
+        <v>0.8259435842086612</v>
       </c>
       <c r="C106" t="n">
-        <v>0.04220725671863401</v>
+        <v>0.1044338494748033</v>
       </c>
       <c r="D106" t="n">
-        <v>0.02110362835931701</v>
+        <v>0.06091974552696857</v>
       </c>
       <c r="E106" t="n">
-        <v>0.007034542786439002</v>
+        <v>0.00870282078956694</v>
       </c>
     </row>
     <row r="107">
@@ -2245,16 +2245,16 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>0.9326799069095864</v>
+        <v>0.8239553278808367</v>
       </c>
       <c r="C107" t="n">
-        <v>0.04039205585424819</v>
+        <v>0.105626803271498</v>
       </c>
       <c r="D107" t="n">
-        <v>0.02019602792712409</v>
+        <v>0.06161563524170715</v>
       </c>
       <c r="E107" t="n">
-        <v>0.006732009309041365</v>
+        <v>0.008802233605958165</v>
       </c>
     </row>
     <row r="108">
@@ -2262,16 +2262,16 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>0.8958774656953954</v>
+        <v>0.8628249885285104</v>
       </c>
       <c r="C108" t="n">
-        <v>0.06247352058276276</v>
+        <v>0.08230500688289374</v>
       </c>
       <c r="D108" t="n">
-        <v>0.03123676029138138</v>
+        <v>0.04801125401502135</v>
       </c>
       <c r="E108" t="n">
-        <v>0.01041225343046046</v>
+        <v>0.00685875057357448</v>
       </c>
     </row>
     <row r="109">
@@ -2279,16 +2279,16 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>0.9410934502809141</v>
+        <v>0.8931338689914862</v>
       </c>
       <c r="C109" t="n">
-        <v>0.03534392983145156</v>
+        <v>0.0641196786051083</v>
       </c>
       <c r="D109" t="n">
-        <v>0.01767196491572578</v>
+        <v>0.03740314585297984</v>
       </c>
       <c r="E109" t="n">
-        <v>0.005890654971908594</v>
+        <v>0.005343306550425692</v>
       </c>
     </row>
     <row r="110">
@@ -2296,16 +2296,16 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>0.8722651536538906</v>
+        <v>0.8941956431973942</v>
       </c>
       <c r="C110" t="n">
-        <v>0.07664090780766565</v>
+        <v>0.06348261408156348</v>
       </c>
       <c r="D110" t="n">
-        <v>0.03832045390383283</v>
+        <v>0.03703152488091203</v>
       </c>
       <c r="E110" t="n">
-        <v>0.01277348463461094</v>
+        <v>0.005290217840130291</v>
       </c>
     </row>
     <row r="111">
@@ -2313,16 +2313,16 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>0.9299528435285825</v>
+        <v>0.8884318862820814</v>
       </c>
       <c r="C111" t="n">
-        <v>0.04202829388285047</v>
+        <v>0.06694086823075118</v>
       </c>
       <c r="D111" t="n">
-        <v>0.02101414694142524</v>
+        <v>0.03904883980127152</v>
       </c>
       <c r="E111" t="n">
-        <v>0.007004715647141746</v>
+        <v>0.005578405685895932</v>
       </c>
     </row>
     <row r="112">
@@ -2330,16 +2330,16 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>0.7833171373211869</v>
+        <v>0.8280931424326367</v>
       </c>
       <c r="C112" t="n">
-        <v>0.1300097176072879</v>
+        <v>0.103144114540418</v>
       </c>
       <c r="D112" t="n">
-        <v>0.06500485880364393</v>
+        <v>0.06016740014857717</v>
       </c>
       <c r="E112" t="n">
-        <v>0.02166828626788131</v>
+        <v>0.008595342878368167</v>
       </c>
     </row>
     <row r="113">
@@ -2347,16 +2347,16 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>0.8797427675309566</v>
+        <v>0.864393319460512</v>
       </c>
       <c r="C113" t="n">
-        <v>0.07215433948142604</v>
+        <v>0.0813640083236928</v>
       </c>
       <c r="D113" t="n">
-        <v>0.03607716974071302</v>
+        <v>0.04746233818882079</v>
       </c>
       <c r="E113" t="n">
-        <v>0.01202572324690434</v>
+        <v>0.0067803340269744</v>
       </c>
     </row>
     <row r="114">
@@ -2364,16 +2364,16 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>0.9094795338656342</v>
+        <v>0.8351893684530622</v>
       </c>
       <c r="C114" t="n">
-        <v>0.05431227968061949</v>
+        <v>0.09888637892816265</v>
       </c>
       <c r="D114" t="n">
-        <v>0.02715613984030974</v>
+        <v>0.05768372104142821</v>
       </c>
       <c r="E114" t="n">
-        <v>0.009052046613436582</v>
+        <v>0.008240531577346888</v>
       </c>
     </row>
     <row r="115">
@@ -2381,16 +2381,16 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>0.8276285863631206</v>
+        <v>0.8872783411562413</v>
       </c>
       <c r="C115" t="n">
-        <v>0.1034228481821276</v>
+        <v>0.06763299530625523</v>
       </c>
       <c r="D115" t="n">
-        <v>0.05171142409106381</v>
+        <v>0.03945258059531555</v>
       </c>
       <c r="E115" t="n">
-        <v>0.01723714136368793</v>
+        <v>0.005636082942187937</v>
       </c>
     </row>
     <row r="116">
@@ -2398,16 +2398,16 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>0.886200878544365</v>
+        <v>0.9218231191427343</v>
       </c>
       <c r="C116" t="n">
-        <v>0.06827947287338099</v>
+        <v>0.04690612851435942</v>
       </c>
       <c r="D116" t="n">
-        <v>0.03413973643669049</v>
+        <v>0.02736190830004299</v>
       </c>
       <c r="E116" t="n">
-        <v>0.0113799121455635</v>
+        <v>0.003908844042863286</v>
       </c>
     </row>
     <row r="117">
@@ -2415,16 +2415,16 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>0.870354338510986</v>
+        <v>0.8943266107477107</v>
       </c>
       <c r="C117" t="n">
-        <v>0.07778739689340841</v>
+        <v>0.06340403355137358</v>
       </c>
       <c r="D117" t="n">
-        <v>0.03889369844670421</v>
+        <v>0.03698568623830126</v>
       </c>
       <c r="E117" t="n">
-        <v>0.0129645661489014</v>
+        <v>0.005283669462614465</v>
       </c>
     </row>
     <row r="118">
@@ -2432,16 +2432,16 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>0.9127341181236235</v>
+        <v>0.88501538195538</v>
       </c>
       <c r="C118" t="n">
-        <v>0.05235952912582591</v>
+        <v>0.068990770826772</v>
       </c>
       <c r="D118" t="n">
-        <v>0.02617976456291295</v>
+        <v>0.040244616315617</v>
       </c>
       <c r="E118" t="n">
-        <v>0.008726588187637652</v>
+        <v>0.005749230902231001</v>
       </c>
     </row>
     <row r="119">
@@ -2449,16 +2449,16 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>0.8709951877994241</v>
+        <v>0.8856593077090521</v>
       </c>
       <c r="C119" t="n">
-        <v>0.07740288732034555</v>
+        <v>0.06860441537456874</v>
       </c>
       <c r="D119" t="n">
-        <v>0.03870144366017277</v>
+        <v>0.04001924230183176</v>
       </c>
       <c r="E119" t="n">
-        <v>0.01290048122005759</v>
+        <v>0.005717034614547395</v>
       </c>
     </row>
     <row r="120">
@@ -2466,16 +2466,16 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>0.9363728562554537</v>
+        <v>0.7747307213627116</v>
       </c>
       <c r="C120" t="n">
-        <v>0.03817628624672775</v>
+        <v>0.135161567182373</v>
       </c>
       <c r="D120" t="n">
-        <v>0.01908814312336388</v>
+        <v>0.07884424752305094</v>
       </c>
       <c r="E120" t="n">
-        <v>0.006362714374454626</v>
+        <v>0.01126346393186442</v>
       </c>
     </row>
     <row r="121">
@@ -2483,16 +2483,16 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>0.946764030617516</v>
+        <v>0.9312268235774223</v>
       </c>
       <c r="C121" t="n">
-        <v>0.03194158162949039</v>
+        <v>0.04126390585354665</v>
       </c>
       <c r="D121" t="n">
-        <v>0.01597079081474519</v>
+        <v>0.02407061174790221</v>
       </c>
       <c r="E121" t="n">
-        <v>0.005323596938248399</v>
+        <v>0.003438658821128887</v>
       </c>
     </row>
     <row r="122">
@@ -2500,16 +2500,16 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>0.8907188594968672</v>
+        <v>0.8081087658678666</v>
       </c>
       <c r="C122" t="n">
-        <v>0.06556868430187965</v>
+        <v>0.11513474047928</v>
       </c>
       <c r="D122" t="n">
-        <v>0.03278434215093982</v>
+        <v>0.06716193194624667</v>
       </c>
       <c r="E122" t="n">
-        <v>0.01092811405031328</v>
+        <v>0.00959456170660667</v>
       </c>
     </row>
     <row r="123">
@@ -2517,16 +2517,16 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>0.8735287945283039</v>
+        <v>0.827405485320692</v>
       </c>
       <c r="C123" t="n">
-        <v>0.07588272328301766</v>
+        <v>0.1035567088075848</v>
       </c>
       <c r="D123" t="n">
-        <v>0.03794136164150883</v>
+        <v>0.06040808013775779</v>
       </c>
       <c r="E123" t="n">
-        <v>0.01264712054716961</v>
+        <v>0.008629725733965398</v>
       </c>
     </row>
     <row r="124">
@@ -2534,16 +2534,16 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>0.8856650983881041</v>
+        <v>0.8665917961655051</v>
       </c>
       <c r="C124" t="n">
-        <v>0.06860094096713751</v>
+        <v>0.08004492230069694</v>
       </c>
       <c r="D124" t="n">
-        <v>0.03430047048356875</v>
+        <v>0.04669287134207322</v>
       </c>
       <c r="E124" t="n">
-        <v>0.01143349016118959</v>
+        <v>0.006670410191724746</v>
       </c>
     </row>
     <row r="125">
@@ -2551,16 +2551,16 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>0.8780134556126348</v>
+        <v>0.9383515957264024</v>
       </c>
       <c r="C125" t="n">
-        <v>0.07319192663241914</v>
+        <v>0.03698904256415858</v>
       </c>
       <c r="D125" t="n">
-        <v>0.03659596331620957</v>
+        <v>0.02157694149575917</v>
       </c>
       <c r="E125" t="n">
-        <v>0.01219865443873652</v>
+        <v>0.003082420213679882</v>
       </c>
     </row>
     <row r="126">
@@ -2568,16 +2568,16 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>0.959084808087584</v>
+        <v>0.8296631458050616</v>
       </c>
       <c r="C126" t="n">
-        <v>0.02454911514744959</v>
+        <v>0.102202112516963</v>
       </c>
       <c r="D126" t="n">
-        <v>0.0122745575737248</v>
+        <v>0.05961789896822843</v>
       </c>
       <c r="E126" t="n">
-        <v>0.0040915191912416</v>
+        <v>0.008516842709746919</v>
       </c>
     </row>
     <row r="127">
@@ -2585,16 +2585,16 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>0.8785136591488754</v>
+        <v>0.9195063079563557</v>
       </c>
       <c r="C127" t="n">
-        <v>0.07289180451067478</v>
+        <v>0.04829621522618659</v>
       </c>
       <c r="D127" t="n">
-        <v>0.03644590225533739</v>
+        <v>0.02817279221527551</v>
       </c>
       <c r="E127" t="n">
-        <v>0.01214863408511246</v>
+        <v>0.004024684602182216</v>
       </c>
     </row>
     <row r="128">
@@ -2602,16 +2602,16 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>0.9305114881008965</v>
+        <v>0.7609738925712441</v>
       </c>
       <c r="C128" t="n">
-        <v>0.04169310713946212</v>
+        <v>0.1434156644572535</v>
       </c>
       <c r="D128" t="n">
-        <v>0.02084655356973106</v>
+        <v>0.08365913760006455</v>
       </c>
       <c r="E128" t="n">
-        <v>0.006948851189910355</v>
+        <v>0.01195130537143779</v>
       </c>
     </row>
     <row r="129">
@@ -2619,16 +2619,16 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>0.9640125892255944</v>
+        <v>0.9185383301201331</v>
       </c>
       <c r="C129" t="n">
-        <v>0.02159244646464336</v>
+        <v>0.04887700192792015</v>
       </c>
       <c r="D129" t="n">
-        <v>0.01079622323232168</v>
+        <v>0.02851158445795342</v>
       </c>
       <c r="E129" t="n">
-        <v>0.00359874107744056</v>
+        <v>0.004073083493993346</v>
       </c>
     </row>
     <row r="130">
@@ -2636,16 +2636,16 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>0.8654488015557491</v>
+        <v>0.9194441491516228</v>
       </c>
       <c r="C130" t="n">
-        <v>0.08073071906655054</v>
+        <v>0.04833351050902635</v>
       </c>
       <c r="D130" t="n">
-        <v>0.04036535953327527</v>
+        <v>0.02819454779693203</v>
       </c>
       <c r="E130" t="n">
-        <v>0.01345511984442509</v>
+        <v>0.004027792542418862</v>
       </c>
     </row>
     <row r="131">
@@ -2653,16 +2653,16 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>0.9301352489922339</v>
+        <v>0.7905006285566939</v>
       </c>
       <c r="C131" t="n">
-        <v>0.04191885060465967</v>
+        <v>0.1256996228659837</v>
       </c>
       <c r="D131" t="n">
-        <v>0.02095942530232984</v>
+        <v>0.07332478000515713</v>
       </c>
       <c r="E131" t="n">
-        <v>0.006986475100776613</v>
+        <v>0.01047496857216531</v>
       </c>
     </row>
     <row r="132">
@@ -2670,16 +2670,16 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>0.8863926414555776</v>
+        <v>0.9186040046510687</v>
       </c>
       <c r="C132" t="n">
-        <v>0.06816441512665343</v>
+        <v>0.04883759720935876</v>
       </c>
       <c r="D132" t="n">
-        <v>0.03408220756332671</v>
+        <v>0.02848859837212594</v>
       </c>
       <c r="E132" t="n">
-        <v>0.01136073585444224</v>
+        <v>0.004069799767446564</v>
       </c>
     </row>
     <row r="133">
@@ -2687,16 +2687,16 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>0.8145200190854547</v>
+        <v>0.8256243991907933</v>
       </c>
       <c r="C133" t="n">
-        <v>0.1112879885487272</v>
+        <v>0.104625360485524</v>
       </c>
       <c r="D133" t="n">
-        <v>0.0556439942743636</v>
+        <v>0.06103146028322233</v>
       </c>
       <c r="E133" t="n">
-        <v>0.01854799809145453</v>
+        <v>0.008718780040460334</v>
       </c>
     </row>
     <row r="134">
@@ -2704,16 +2704,16 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>0.9406566739262048</v>
+        <v>0.8868021103014549</v>
       </c>
       <c r="C134" t="n">
-        <v>0.03560599564427713</v>
+        <v>0.06791873381912703</v>
       </c>
       <c r="D134" t="n">
-        <v>0.01780299782213857</v>
+        <v>0.03961926139449076</v>
       </c>
       <c r="E134" t="n">
-        <v>0.005934332607379522</v>
+        <v>0.005659894484927253</v>
       </c>
     </row>
     <row r="135">
@@ -2721,16 +2721,16 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>0.8756039282993335</v>
+        <v>0.8135359593339562</v>
       </c>
       <c r="C135" t="n">
-        <v>0.07463764302039988</v>
+        <v>0.1118784243996263</v>
       </c>
       <c r="D135" t="n">
-        <v>0.03731882151019994</v>
+        <v>0.06526241423311534</v>
       </c>
       <c r="E135" t="n">
-        <v>0.01243960717006665</v>
+        <v>0.009323202033302192</v>
       </c>
     </row>
     <row r="136">
@@ -2738,16 +2738,16 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>0.8969131464258414</v>
+        <v>0.8817712184138508</v>
       </c>
       <c r="C136" t="n">
-        <v>0.06185211214449515</v>
+        <v>0.07093726895168954</v>
       </c>
       <c r="D136" t="n">
-        <v>0.03092605607224758</v>
+        <v>0.04138007355515223</v>
       </c>
       <c r="E136" t="n">
-        <v>0.01030868535741586</v>
+        <v>0.005911439079307463</v>
       </c>
     </row>
     <row r="137">
@@ -2755,16 +2755,16 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>0.9442877993208746</v>
+        <v>0.7996368191842126</v>
       </c>
       <c r="C137" t="n">
-        <v>0.03342732040747524</v>
+        <v>0.1202179084894724</v>
       </c>
       <c r="D137" t="n">
-        <v>0.01671366020373762</v>
+        <v>0.07012711328552559</v>
       </c>
       <c r="E137" t="n">
-        <v>0.005571220067912542</v>
+        <v>0.01001815904078937</v>
       </c>
     </row>
     <row r="138">
@@ -2772,16 +2772,16 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>0.8753651801563087</v>
+        <v>0.8287552142399138</v>
       </c>
       <c r="C138" t="n">
-        <v>0.07478089190621477</v>
+        <v>0.1027468714560517</v>
       </c>
       <c r="D138" t="n">
-        <v>0.03739044595310739</v>
+        <v>0.05993567501603016</v>
       </c>
       <c r="E138" t="n">
-        <v>0.01246348198436913</v>
+        <v>0.008562239288004309</v>
       </c>
     </row>
     <row r="139">
@@ -2789,16 +2789,16 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>0.8199020651725786</v>
+        <v>0.8603226875486901</v>
       </c>
       <c r="C139" t="n">
-        <v>0.1080587608964528</v>
+        <v>0.08380638747078592</v>
       </c>
       <c r="D139" t="n">
-        <v>0.05402938044822642</v>
+        <v>0.04888705935795845</v>
       </c>
       <c r="E139" t="n">
-        <v>0.01800979348274214</v>
+        <v>0.006983865622565495</v>
       </c>
     </row>
     <row r="140">
@@ -2806,16 +2806,16 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>0.9305504190263134</v>
+        <v>0.8329906026978127</v>
       </c>
       <c r="C140" t="n">
-        <v>0.04166974858421195</v>
+        <v>0.1002056383813124</v>
       </c>
       <c r="D140" t="n">
-        <v>0.02083487429210597</v>
+        <v>0.05845328905576556</v>
       </c>
       <c r="E140" t="n">
-        <v>0.006944958097368659</v>
+        <v>0.008350469865109367</v>
       </c>
     </row>
     <row r="141">
@@ -2823,16 +2823,16 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>0.8897484416582289</v>
+        <v>0.8436455269862904</v>
       </c>
       <c r="C141" t="n">
-        <v>0.06615093500506268</v>
+        <v>0.09381268380822579</v>
       </c>
       <c r="D141" t="n">
-        <v>0.03307546750253134</v>
+        <v>0.05472406555479837</v>
       </c>
       <c r="E141" t="n">
-        <v>0.01102515583417711</v>
+        <v>0.007817723650685482</v>
       </c>
     </row>
     <row r="142">
@@ -2840,16 +2840,16 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>0.8994582653223334</v>
+        <v>0.8915477508102703</v>
       </c>
       <c r="C142" t="n">
-        <v>0.06032504080659995</v>
+        <v>0.06507134951383783</v>
       </c>
       <c r="D142" t="n">
-        <v>0.03016252040329997</v>
+        <v>0.0379582872164054</v>
       </c>
       <c r="E142" t="n">
-        <v>0.01005417346776666</v>
+        <v>0.005422612459486487</v>
       </c>
     </row>
     <row r="143">
@@ -2857,16 +2857,16 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>0.9196172859547969</v>
+        <v>0.8698333038569281</v>
       </c>
       <c r="C143" t="n">
-        <v>0.04822962842712188</v>
+        <v>0.07810001768584311</v>
       </c>
       <c r="D143" t="n">
-        <v>0.02411481421356094</v>
+        <v>0.04555834365007515</v>
       </c>
       <c r="E143" t="n">
-        <v>0.008038271404520314</v>
+        <v>0.006508334807153593</v>
       </c>
     </row>
     <row r="144">
@@ -2874,16 +2874,16 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>0.8534964397375353</v>
+        <v>0.8713426697933538</v>
       </c>
       <c r="C144" t="n">
-        <v>0.08790213615747881</v>
+        <v>0.07719439812398769</v>
       </c>
       <c r="D144" t="n">
-        <v>0.04395106807873941</v>
+        <v>0.04503006557232615</v>
       </c>
       <c r="E144" t="n">
-        <v>0.01465035602624647</v>
+        <v>0.006432866510332308</v>
       </c>
     </row>
     <row r="145">
@@ -2891,16 +2891,16 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>0.8556814867648933</v>
+        <v>0.9484050670674761</v>
       </c>
       <c r="C145" t="n">
-        <v>0.08659110794106402</v>
+        <v>0.03095695975951436</v>
       </c>
       <c r="D145" t="n">
-        <v>0.04329555397053201</v>
+        <v>0.01805822652638337</v>
       </c>
       <c r="E145" t="n">
-        <v>0.01443185132351067</v>
+        <v>0.002579746646626197</v>
       </c>
     </row>
     <row r="146">
@@ -2908,16 +2908,16 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>0.9142190737244298</v>
+        <v>0.837588830600132</v>
       </c>
       <c r="C146" t="n">
-        <v>0.05146855576534213</v>
+        <v>0.09744670163992079</v>
       </c>
       <c r="D146" t="n">
-        <v>0.02573427788267106</v>
+        <v>0.0568439092899538</v>
       </c>
       <c r="E146" t="n">
-        <v>0.008578092627557021</v>
+        <v>0.0081205584699934</v>
       </c>
     </row>
     <row r="147">
@@ -2925,16 +2925,16 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>0.9699010703213471</v>
+        <v>0.7869583308262016</v>
       </c>
       <c r="C147" t="n">
-        <v>0.01805935780719175</v>
+        <v>0.127825001504279</v>
       </c>
       <c r="D147" t="n">
-        <v>0.009029678903595873</v>
+        <v>0.07456458421082944</v>
       </c>
       <c r="E147" t="n">
-        <v>0.003009892967865291</v>
+        <v>0.01065208345868992</v>
       </c>
     </row>
     <row r="148">
@@ -2942,16 +2942,16 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>0.8840505599122421</v>
+        <v>0.8953450350284823</v>
       </c>
       <c r="C148" t="n">
-        <v>0.06956966405265472</v>
+        <v>0.06279297898291063</v>
       </c>
       <c r="D148" t="n">
-        <v>0.03478483202632736</v>
+        <v>0.0366292377400312</v>
       </c>
       <c r="E148" t="n">
-        <v>0.01159494400877579</v>
+        <v>0.005232748248575886</v>
       </c>
     </row>
     <row r="149">
@@ -2959,16 +2959,16 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>0.8768291444951821</v>
+        <v>0.8670631857100564</v>
       </c>
       <c r="C149" t="n">
-        <v>0.07390251330289073</v>
+        <v>0.07976208857396618</v>
       </c>
       <c r="D149" t="n">
-        <v>0.03695125665144536</v>
+        <v>0.04652788500148027</v>
       </c>
       <c r="E149" t="n">
-        <v>0.01231708555048179</v>
+        <v>0.006646840714497182</v>
       </c>
     </row>
     <row r="150">
@@ -2976,16 +2976,16 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>0.8841954402182137</v>
+        <v>0.867152335673523</v>
       </c>
       <c r="C150" t="n">
-        <v>0.06948273586907176</v>
+        <v>0.07970859859588619</v>
       </c>
       <c r="D150" t="n">
-        <v>0.03474136793453588</v>
+        <v>0.04649668251426695</v>
       </c>
       <c r="E150" t="n">
-        <v>0.01158045597817863</v>
+        <v>0.006642383216323849</v>
       </c>
     </row>
     <row r="151">
@@ -2993,16 +2993,16 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>0.8435111039386574</v>
+        <v>0.9097101544995807</v>
       </c>
       <c r="C151" t="n">
-        <v>0.09389333763680559</v>
+        <v>0.05417390730025157</v>
       </c>
       <c r="D151" t="n">
-        <v>0.04694666881840279</v>
+        <v>0.03160144592514675</v>
       </c>
       <c r="E151" t="n">
-        <v>0.01564888960613426</v>
+        <v>0.004514492275020965</v>
       </c>
     </row>
     <row r="152">
@@ -3010,16 +3010,16 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>0.845081073070047</v>
+        <v>0.9278576444517674</v>
       </c>
       <c r="C152" t="n">
-        <v>0.0929513561579718</v>
+        <v>0.04328541332893954</v>
       </c>
       <c r="D152" t="n">
-        <v>0.0464756780789859</v>
+        <v>0.0252498244418814</v>
       </c>
       <c r="E152" t="n">
-        <v>0.0154918926929953</v>
+        <v>0.003607117777411628</v>
       </c>
     </row>
     <row r="153">
@@ -3027,16 +3027,16 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>0.9130147776109184</v>
+        <v>0.8444790927439518</v>
       </c>
       <c r="C153" t="n">
-        <v>0.05219113343344894</v>
+        <v>0.0933125443536289</v>
       </c>
       <c r="D153" t="n">
-        <v>0.02609556671672447</v>
+        <v>0.05443231753961686</v>
       </c>
       <c r="E153" t="n">
-        <v>0.008698522238908157</v>
+        <v>0.007776045362802408</v>
       </c>
     </row>
     <row r="154">
@@ -3044,16 +3044,16 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>0.926201988670067</v>
+        <v>0.8097623816801237</v>
       </c>
       <c r="C154" t="n">
-        <v>0.04427880679795981</v>
+        <v>0.1141425709919258</v>
       </c>
       <c r="D154" t="n">
-        <v>0.02213940339897991</v>
+        <v>0.06658316641195669</v>
       </c>
       <c r="E154" t="n">
-        <v>0.007379801132993302</v>
+        <v>0.009511880915993816</v>
       </c>
     </row>
     <row r="155">
@@ -3061,16 +3061,16 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>0.7963897855114586</v>
+        <v>0.7937659239244834</v>
       </c>
       <c r="C155" t="n">
-        <v>0.1221661286931249</v>
+        <v>0.1237404456453099</v>
       </c>
       <c r="D155" t="n">
-        <v>0.06108306434656243</v>
+        <v>0.0721819266264308</v>
       </c>
       <c r="E155" t="n">
-        <v>0.02036102144885414</v>
+        <v>0.01031170380377583</v>
       </c>
     </row>
     <row r="156">
@@ -3078,16 +3078,16 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>0.8347494957463377</v>
+        <v>0.7909016834473412</v>
       </c>
       <c r="C156" t="n">
-        <v>0.09915030255219737</v>
+        <v>0.1254589899315952</v>
       </c>
       <c r="D156" t="n">
-        <v>0.04957515127609868</v>
+        <v>0.07318441079343056</v>
       </c>
       <c r="E156" t="n">
-        <v>0.01652505042536623</v>
+        <v>0.01045491582763294</v>
       </c>
     </row>
     <row r="157">
@@ -3095,16 +3095,16 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>0.9325249419096305</v>
+        <v>0.8620094683621061</v>
       </c>
       <c r="C157" t="n">
-        <v>0.04048503485422168</v>
+        <v>0.08279431898273633</v>
       </c>
       <c r="D157" t="n">
-        <v>0.02024251742711084</v>
+        <v>0.04829668607326285</v>
       </c>
       <c r="E157" t="n">
-        <v>0.006747505809036947</v>
+        <v>0.006899526581894694</v>
       </c>
     </row>
     <row r="158">
@@ -3112,16 +3112,16 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>0.8428223432207337</v>
+        <v>0.8734312813275195</v>
       </c>
       <c r="C158" t="n">
-        <v>0.09430659406755978</v>
+        <v>0.07594123120348832</v>
       </c>
       <c r="D158" t="n">
-        <v>0.04715329703377989</v>
+        <v>0.04429905153536819</v>
       </c>
       <c r="E158" t="n">
-        <v>0.01571776567792663</v>
+        <v>0.006328435933624027</v>
       </c>
     </row>
   </sheetData>

--- a/data/origin/cars_length_procent.xlsx
+++ b/data/origin/cars_length_procent.xlsx
@@ -460,16 +460,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8937769826947338</v>
+        <v>0.7991442928860751</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0637338103831597</v>
+        <v>0.1305562096240512</v>
       </c>
       <c r="D2" t="n">
-        <v>0.03717805605684316</v>
+        <v>0.06025671213417746</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00531115086526331</v>
+        <v>0.01004278535569624</v>
       </c>
     </row>
     <row r="3">
@@ -477,16 +477,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8344706511487725</v>
+        <v>0.9027417947549343</v>
       </c>
       <c r="C3" t="n">
-        <v>0.09931760931073649</v>
+        <v>0.0632178334092927</v>
       </c>
       <c r="D3" t="n">
-        <v>0.05793527209792962</v>
+        <v>0.0291774615735197</v>
       </c>
       <c r="E3" t="n">
-        <v>0.008276467442561376</v>
+        <v>0.004862910262253284</v>
       </c>
     </row>
     <row r="4">
@@ -494,16 +494,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9067407208329322</v>
+        <v>0.824817070095085</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05595556750024067</v>
+        <v>0.1138689044381948</v>
       </c>
       <c r="D4" t="n">
-        <v>0.03264074770847372</v>
+        <v>0.0525548789714745</v>
       </c>
       <c r="E4" t="n">
-        <v>0.004662963958353389</v>
+        <v>0.008759146495245751</v>
       </c>
     </row>
     <row r="5">
@@ -511,16 +511,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8552839043133201</v>
+        <v>0.8962984846251811</v>
       </c>
       <c r="C5" t="n">
-        <v>0.08682965741200792</v>
+        <v>0.06740598499363226</v>
       </c>
       <c r="D5" t="n">
-        <v>0.05065063349033795</v>
+        <v>0.03111045461244566</v>
       </c>
       <c r="E5" t="n">
-        <v>0.007235804784333994</v>
+        <v>0.005185075768740943</v>
       </c>
     </row>
     <row r="6">
@@ -528,16 +528,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.8872245471157882</v>
+        <v>0.874230806304695</v>
       </c>
       <c r="C6" t="n">
-        <v>0.06766527173052705</v>
+        <v>0.08174997590194828</v>
       </c>
       <c r="D6" t="n">
-        <v>0.03947140850947412</v>
+        <v>0.03773075810859151</v>
       </c>
       <c r="E6" t="n">
-        <v>0.005638772644210588</v>
+        <v>0.006288459684765252</v>
       </c>
     </row>
     <row r="7">
@@ -545,16 +545,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.8196362600605656</v>
+        <v>0.8673635770118366</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1082182439636607</v>
+        <v>0.08621367494230618</v>
       </c>
       <c r="D7" t="n">
-        <v>0.06312730897880205</v>
+        <v>0.03979092689644901</v>
       </c>
       <c r="E7" t="n">
-        <v>0.009018186996971723</v>
+        <v>0.006631821149408169</v>
       </c>
     </row>
     <row r="8">
@@ -562,16 +562,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.9433557269671712</v>
+        <v>0.8450878867604075</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03398656381969729</v>
+        <v>0.1006928736057351</v>
       </c>
       <c r="D8" t="n">
-        <v>0.01982549556149009</v>
+        <v>0.04647363397187776</v>
       </c>
       <c r="E8" t="n">
-        <v>0.002832213651641441</v>
+        <v>0.007745605661979627</v>
       </c>
     </row>
     <row r="9">
@@ -579,16 +579,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.8851234782354941</v>
+        <v>0.8671950208658359</v>
       </c>
       <c r="C9" t="n">
-        <v>0.06892591305870355</v>
+        <v>0.08632323643720667</v>
       </c>
       <c r="D9" t="n">
-        <v>0.04020678261757707</v>
+        <v>0.03984149374024924</v>
       </c>
       <c r="E9" t="n">
-        <v>0.005743826088225296</v>
+        <v>0.006640248956708206</v>
       </c>
     </row>
     <row r="10">
@@ -596,16 +596,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.8109714522233715</v>
+        <v>0.8314865185445625</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1134171286659771</v>
+        <v>0.1095337629460344</v>
       </c>
       <c r="D10" t="n">
-        <v>0.06615999172181997</v>
+        <v>0.05055404443663126</v>
       </c>
       <c r="E10" t="n">
-        <v>0.009451427388831424</v>
+        <v>0.008425674072771878</v>
       </c>
     </row>
     <row r="11">
@@ -613,16 +613,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9320677933436063</v>
+        <v>0.8307529179152795</v>
       </c>
       <c r="C11" t="n">
-        <v>0.04075932399383619</v>
+        <v>0.1100106033550683</v>
       </c>
       <c r="D11" t="n">
-        <v>0.02377627232973778</v>
+        <v>0.05077412462541615</v>
       </c>
       <c r="E11" t="n">
-        <v>0.003396610332819683</v>
+        <v>0.008462354104236026</v>
       </c>
     </row>
     <row r="12">
@@ -630,16 +630,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.8304516526057777</v>
+        <v>0.8347138137870742</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1017290084365334</v>
+        <v>0.1074360210384018</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0593419215879778</v>
+        <v>0.04958585586387774</v>
       </c>
       <c r="E12" t="n">
-        <v>0.008477417369711115</v>
+        <v>0.008264309310646289</v>
       </c>
     </row>
     <row r="13">
@@ -647,16 +647,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.8927811747324441</v>
+        <v>0.9082591623118208</v>
       </c>
       <c r="C13" t="n">
-        <v>0.06433129516053353</v>
+        <v>0.05963154449731648</v>
       </c>
       <c r="D13" t="n">
-        <v>0.03752658884364456</v>
+        <v>0.02752225130645376</v>
       </c>
       <c r="E13" t="n">
-        <v>0.005360941263377795</v>
+        <v>0.00458704188440896</v>
       </c>
     </row>
     <row r="14">
@@ -664,16 +664,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.8275273291225692</v>
+        <v>0.8266475308979008</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1034836025264585</v>
+        <v>0.1126791049163645</v>
       </c>
       <c r="D14" t="n">
-        <v>0.06036543480710077</v>
+        <v>0.05200574073062977</v>
       </c>
       <c r="E14" t="n">
-        <v>0.00862363354387154</v>
+        <v>0.008667623455104962</v>
       </c>
     </row>
     <row r="15">
@@ -681,16 +681,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.8109547907991791</v>
+        <v>0.909786169880715</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1134271255204925</v>
+        <v>0.05863898957753523</v>
       </c>
       <c r="D15" t="n">
-        <v>0.06616582322028731</v>
+        <v>0.02706414903578549</v>
       </c>
       <c r="E15" t="n">
-        <v>0.009452260460041046</v>
+        <v>0.004510691505964249</v>
       </c>
     </row>
     <row r="16">
@@ -698,16 +698,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.7893511314820728</v>
+        <v>0.8220667519821295</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1263893211107563</v>
+        <v>0.1156566112116158</v>
       </c>
       <c r="D16" t="n">
-        <v>0.07372710398127451</v>
+        <v>0.05337997440536114</v>
       </c>
       <c r="E16" t="n">
-        <v>0.01053244342589636</v>
+        <v>0.008896662400893525</v>
       </c>
     </row>
     <row r="17">
@@ -715,16 +715,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.7516513261618473</v>
+        <v>0.9404146448713925</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1490092043028916</v>
+        <v>0.03873048083359489</v>
       </c>
       <c r="D17" t="n">
-        <v>0.08692203584335345</v>
+        <v>0.01787560653858225</v>
       </c>
       <c r="E17" t="n">
-        <v>0.01241743369190764</v>
+        <v>0.002979267756430376</v>
       </c>
     </row>
     <row r="18">
@@ -732,16 +732,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.8029241038530373</v>
+        <v>0.8332578309078885</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1182455376881776</v>
+        <v>0.1083824099098725</v>
       </c>
       <c r="D18" t="n">
-        <v>0.06897656365143695</v>
+        <v>0.05002265072763344</v>
       </c>
       <c r="E18" t="n">
-        <v>0.009853794807348139</v>
+        <v>0.008337108454605575</v>
       </c>
     </row>
     <row r="19">
@@ -749,16 +749,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.8590908460984308</v>
+        <v>0.8211679631034671</v>
       </c>
       <c r="C19" t="n">
-        <v>0.08454549234094152</v>
+        <v>0.1162408239827464</v>
       </c>
       <c r="D19" t="n">
-        <v>0.04931820386554922</v>
+        <v>0.05364961106895988</v>
       </c>
       <c r="E19" t="n">
-        <v>0.007045457695078462</v>
+        <v>0.008941601844826647</v>
       </c>
     </row>
     <row r="20">
@@ -766,16 +766,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.8923623562849965</v>
+        <v>0.8337334251994033</v>
       </c>
       <c r="C20" t="n">
-        <v>0.06458258622900211</v>
+        <v>0.1080732736203879</v>
       </c>
       <c r="D20" t="n">
-        <v>0.03767317530025122</v>
+        <v>0.04987997244017901</v>
       </c>
       <c r="E20" t="n">
-        <v>0.005381882185750176</v>
+        <v>0.008313328740029836</v>
       </c>
     </row>
     <row r="21">
@@ -783,16 +783,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.8029925770564588</v>
+        <v>0.8215826161229385</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1182044537661247</v>
+        <v>0.11597129952009</v>
       </c>
       <c r="D21" t="n">
-        <v>0.06895259803023943</v>
+        <v>0.05352521516311846</v>
       </c>
       <c r="E21" t="n">
-        <v>0.009850371147177062</v>
+        <v>0.008920869193853076</v>
       </c>
     </row>
     <row r="22">
@@ -800,16 +800,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.759183863949258</v>
+        <v>0.777591633233615</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1444896816304452</v>
+        <v>0.1445654383981503</v>
       </c>
       <c r="D22" t="n">
-        <v>0.08428564761775971</v>
+        <v>0.06672251002991549</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0120408068025371</v>
+        <v>0.01112041833831925</v>
       </c>
     </row>
     <row r="23">
@@ -817,16 +817,16 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.9147111326391058</v>
+        <v>0.8412858294914451</v>
       </c>
       <c r="C23" t="n">
-        <v>0.05117332041653655</v>
+        <v>0.1031642108305607</v>
       </c>
       <c r="D23" t="n">
-        <v>0.02985110357631298</v>
+        <v>0.04761425115256646</v>
       </c>
       <c r="E23" t="n">
-        <v>0.004264443368044712</v>
+        <v>0.007935708525427743</v>
       </c>
     </row>
     <row r="24">
@@ -834,16 +834,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.8856328928269007</v>
+        <v>0.8485570824600438</v>
       </c>
       <c r="C24" t="n">
-        <v>0.06862026430385956</v>
+        <v>0.09843789640097153</v>
       </c>
       <c r="D24" t="n">
-        <v>0.04002848751058474</v>
+        <v>0.04543287526198686</v>
       </c>
       <c r="E24" t="n">
-        <v>0.005718355358654965</v>
+        <v>0.00757214587699781</v>
       </c>
     </row>
     <row r="25">
@@ -851,16 +851,16 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.8626839562742011</v>
+        <v>0.8815489835245068</v>
       </c>
       <c r="C25" t="n">
-        <v>0.08238962623547931</v>
+        <v>0.07699316070907056</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0480606153040296</v>
+        <v>0.03553530494264795</v>
       </c>
       <c r="E25" t="n">
-        <v>0.006865802186289943</v>
+        <v>0.005922550823774658</v>
       </c>
     </row>
     <row r="26">
@@ -868,16 +868,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.8918110412924425</v>
+        <v>0.8561497766355893</v>
       </c>
       <c r="C26" t="n">
-        <v>0.06491337522453451</v>
+        <v>0.09350264518686693</v>
       </c>
       <c r="D26" t="n">
-        <v>0.03786613554764513</v>
+        <v>0.0431550670093232</v>
       </c>
       <c r="E26" t="n">
-        <v>0.005409447935377876</v>
+        <v>0.007192511168220533</v>
       </c>
     </row>
     <row r="27">
@@ -885,16 +885,16 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.8483626991708043</v>
+        <v>0.8547300347162048</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0909823804975174</v>
+        <v>0.09442547743446689</v>
       </c>
       <c r="D27" t="n">
-        <v>0.05307305529021849</v>
+        <v>0.04358098958513856</v>
       </c>
       <c r="E27" t="n">
-        <v>0.007581865041459785</v>
+        <v>0.007263498264189761</v>
       </c>
     </row>
     <row r="28">
@@ -902,16 +902,16 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.8083512652151377</v>
+        <v>0.8413667705461134</v>
       </c>
       <c r="C28" t="n">
-        <v>0.1149892408709174</v>
+        <v>0.1031115991450263</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0670770571747018</v>
+        <v>0.04758996883616597</v>
       </c>
       <c r="E28" t="n">
-        <v>0.009582436739243118</v>
+        <v>0.007931661472694329</v>
       </c>
     </row>
     <row r="29">
@@ -919,16 +919,16 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.9188105949709348</v>
+        <v>0.8558806942376229</v>
       </c>
       <c r="C29" t="n">
-        <v>0.04871364301743914</v>
+        <v>0.09367754874554511</v>
       </c>
       <c r="D29" t="n">
-        <v>0.02841629176017283</v>
+        <v>0.04323579172871312</v>
       </c>
       <c r="E29" t="n">
-        <v>0.004059470251453263</v>
+        <v>0.007205965288118854</v>
       </c>
     </row>
     <row r="30">
@@ -936,16 +936,16 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.780884019380485</v>
+        <v>0.908482559258362</v>
       </c>
       <c r="C30" t="n">
-        <v>0.131469588371709</v>
+        <v>0.05948633648206472</v>
       </c>
       <c r="D30" t="n">
-        <v>0.07669059321683024</v>
+        <v>0.02745523222249141</v>
       </c>
       <c r="E30" t="n">
-        <v>0.01095579903097575</v>
+        <v>0.004575872037081902</v>
       </c>
     </row>
     <row r="31">
@@ -953,16 +953,16 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.8828767519351862</v>
+        <v>0.8713153960237228</v>
       </c>
       <c r="C31" t="n">
-        <v>0.07027394883888827</v>
+        <v>0.08364499258458021</v>
       </c>
       <c r="D31" t="n">
-        <v>0.04099313682268482</v>
+        <v>0.03860538119288317</v>
       </c>
       <c r="E31" t="n">
-        <v>0.005856162403240689</v>
+        <v>0.006434230198813862</v>
       </c>
     </row>
     <row r="32">
@@ -970,16 +970,16 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.8465199835425155</v>
+        <v>0.8850225436684139</v>
       </c>
       <c r="C32" t="n">
-        <v>0.09208800987449073</v>
+        <v>0.07473534661553095</v>
       </c>
       <c r="D32" t="n">
-        <v>0.05371800576011959</v>
+        <v>0.03449323689947582</v>
       </c>
       <c r="E32" t="n">
-        <v>0.007674000822874227</v>
+        <v>0.005748872816579304</v>
       </c>
     </row>
     <row r="33">
@@ -987,16 +987,16 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.8791939264232738</v>
+        <v>0.8369288302251356</v>
       </c>
       <c r="C33" t="n">
-        <v>0.07248364414603574</v>
+        <v>0.1059962603536618</v>
       </c>
       <c r="D33" t="n">
-        <v>0.04228212575185418</v>
+        <v>0.04892135093245931</v>
       </c>
       <c r="E33" t="n">
-        <v>0.006040303678836312</v>
+        <v>0.008153558488743218</v>
       </c>
     </row>
     <row r="34">
@@ -1004,16 +1004,16 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.8784155067536015</v>
+        <v>0.8345849640223676</v>
       </c>
       <c r="C34" t="n">
-        <v>0.07295069594783911</v>
+        <v>0.1075197733854611</v>
       </c>
       <c r="D34" t="n">
-        <v>0.04255457263623948</v>
+        <v>0.04962451079328972</v>
       </c>
       <c r="E34" t="n">
-        <v>0.006079224662319927</v>
+        <v>0.00827075179888162</v>
       </c>
     </row>
     <row r="35">
@@ -1021,16 +1021,16 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.8669046272718327</v>
+        <v>0.8173093695001915</v>
       </c>
       <c r="C35" t="n">
-        <v>0.07985722363690037</v>
+        <v>0.1187489098248755</v>
       </c>
       <c r="D35" t="n">
-        <v>0.04658338045485855</v>
+        <v>0.05480718914994254</v>
       </c>
       <c r="E35" t="n">
-        <v>0.006654768636408365</v>
+        <v>0.009134531524990426</v>
       </c>
     </row>
     <row r="36">
@@ -1038,16 +1038,16 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.8736739750381866</v>
+        <v>0.9196302725738095</v>
       </c>
       <c r="C36" t="n">
-        <v>0.07579561497708806</v>
+        <v>0.05224032282702384</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0442141087366347</v>
+        <v>0.02411091822785716</v>
       </c>
       <c r="E36" t="n">
-        <v>0.006316301248090673</v>
+        <v>0.004018486371309526</v>
       </c>
     </row>
     <row r="37">
@@ -1055,16 +1055,16 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.8417646693154562</v>
+        <v>0.9177891990505137</v>
       </c>
       <c r="C37" t="n">
-        <v>0.09494119841072625</v>
+        <v>0.05343702061716609</v>
       </c>
       <c r="D37" t="n">
-        <v>0.05538236573959032</v>
+        <v>0.02466324028484589</v>
       </c>
       <c r="E37" t="n">
-        <v>0.007911766534227189</v>
+        <v>0.004110540047474315</v>
       </c>
     </row>
     <row r="38">
@@ -1072,16 +1072,16 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.8878533901006549</v>
+        <v>0.8571583262097614</v>
       </c>
       <c r="C38" t="n">
-        <v>0.06728796593960706</v>
+        <v>0.09284708796365509</v>
       </c>
       <c r="D38" t="n">
-        <v>0.03925131346477079</v>
+        <v>0.04285250213707158</v>
       </c>
       <c r="E38" t="n">
-        <v>0.005607330494967255</v>
+        <v>0.007142083689511931</v>
       </c>
     </row>
     <row r="39">
@@ -1089,16 +1089,16 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.8702631414388954</v>
+        <v>0.9035788361457973</v>
       </c>
       <c r="C39" t="n">
-        <v>0.07784211513666277</v>
+        <v>0.06267375650523178</v>
       </c>
       <c r="D39" t="n">
-        <v>0.04540790049638661</v>
+        <v>0.02892634915626082</v>
       </c>
       <c r="E39" t="n">
-        <v>0.006486842928055231</v>
+        <v>0.004821058192710137</v>
       </c>
     </row>
     <row r="40">
@@ -1106,16 +1106,16 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.826364890328695</v>
+        <v>0.8613649606166994</v>
       </c>
       <c r="C40" t="n">
-        <v>0.104181065802783</v>
+        <v>0.09011277559914538</v>
       </c>
       <c r="D40" t="n">
-        <v>0.06077228838495675</v>
+        <v>0.04159051181499017</v>
       </c>
       <c r="E40" t="n">
-        <v>0.008681755483565251</v>
+        <v>0.006931751969165029</v>
       </c>
     </row>
     <row r="41">
@@ -1123,16 +1123,16 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.730420679628251</v>
+        <v>0.8517937240197287</v>
       </c>
       <c r="C41" t="n">
-        <v>0.1617475922230494</v>
+        <v>0.09633407938717632</v>
       </c>
       <c r="D41" t="n">
-        <v>0.09435276213011215</v>
+        <v>0.04446188279408137</v>
       </c>
       <c r="E41" t="n">
-        <v>0.01347896601858745</v>
+        <v>0.007410313799013563</v>
       </c>
     </row>
     <row r="42">
@@ -1140,16 +1140,16 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.8788795923016507</v>
+        <v>0.8812600545506538</v>
       </c>
       <c r="C42" t="n">
-        <v>0.07267224461900958</v>
+        <v>0.07718096454207503</v>
       </c>
       <c r="D42" t="n">
-        <v>0.04239214269442226</v>
+        <v>0.03562198363480385</v>
       </c>
       <c r="E42" t="n">
-        <v>0.006056020384917466</v>
+        <v>0.005936997272467309</v>
       </c>
     </row>
     <row r="43">
@@ -1157,16 +1157,16 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.8678789761112844</v>
+        <v>0.8198594445090996</v>
       </c>
       <c r="C43" t="n">
-        <v>0.07927261433322937</v>
+        <v>0.1170913610690852</v>
       </c>
       <c r="D43" t="n">
-        <v>0.04624235836105046</v>
+        <v>0.05404216664727011</v>
       </c>
       <c r="E43" t="n">
-        <v>0.006606051194435781</v>
+        <v>0.009007027774545017</v>
       </c>
     </row>
     <row r="44">
@@ -1174,16 +1174,16 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.9204518275805705</v>
+        <v>0.8235978167451441</v>
       </c>
       <c r="C44" t="n">
-        <v>0.04772890345165768</v>
+        <v>0.1146614191156563</v>
       </c>
       <c r="D44" t="n">
-        <v>0.02784186034680031</v>
+        <v>0.05292065497645677</v>
       </c>
       <c r="E44" t="n">
-        <v>0.003977408620971473</v>
+        <v>0.008820109162742796</v>
       </c>
     </row>
     <row r="45">
@@ -1191,16 +1191,16 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.8153597312649346</v>
+        <v>0.8425895225768284</v>
       </c>
       <c r="C45" t="n">
-        <v>0.1107841612410393</v>
+        <v>0.1023168103250615</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0646240940572729</v>
+        <v>0.04722314322695148</v>
       </c>
       <c r="E45" t="n">
-        <v>0.009232013436753273</v>
+        <v>0.00787052387115858</v>
       </c>
     </row>
     <row r="46">
@@ -1208,16 +1208,16 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.9235526760249848</v>
+        <v>0.8042726143016764</v>
       </c>
       <c r="C46" t="n">
-        <v>0.04586839438500911</v>
+        <v>0.1272228007039103</v>
       </c>
       <c r="D46" t="n">
-        <v>0.02675656339125532</v>
+        <v>0.05871821570949708</v>
       </c>
       <c r="E46" t="n">
-        <v>0.00382236619875076</v>
+        <v>0.009786369284916181</v>
       </c>
     </row>
     <row r="47">
@@ -1225,16 +1225,16 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.8221696902825861</v>
+        <v>0.8665073162948808</v>
       </c>
       <c r="C47" t="n">
-        <v>0.1066981858304483</v>
+        <v>0.08677024440832751</v>
       </c>
       <c r="D47" t="n">
-        <v>0.06224060840109485</v>
+        <v>0.04004780511153577</v>
       </c>
       <c r="E47" t="n">
-        <v>0.008891515485870694</v>
+        <v>0.006674634185255962</v>
       </c>
     </row>
     <row r="48">
@@ -1242,16 +1242,16 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.8681000886631918</v>
+        <v>0.8943084311815964</v>
       </c>
       <c r="C48" t="n">
-        <v>0.07913994680208493</v>
+        <v>0.06869951973196232</v>
       </c>
       <c r="D48" t="n">
-        <v>0.04616496896788288</v>
+        <v>0.03170747064552108</v>
       </c>
       <c r="E48" t="n">
-        <v>0.006594995566840412</v>
+        <v>0.00528457844092018</v>
       </c>
     </row>
     <row r="49">
@@ -1259,16 +1259,16 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.9221470022456094</v>
+        <v>0.8411462627769627</v>
       </c>
       <c r="C49" t="n">
-        <v>0.04671179865263435</v>
+        <v>0.1032549291949743</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0272485492140367</v>
+        <v>0.04765612116691119</v>
       </c>
       <c r="E49" t="n">
-        <v>0.00389264988771953</v>
+        <v>0.007942686861151866</v>
       </c>
     </row>
     <row r="50">
@@ -1276,16 +1276,16 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.8475242103262016</v>
+        <v>0.9068012531475277</v>
       </c>
       <c r="C50" t="n">
-        <v>0.09148547380427903</v>
+        <v>0.060579185454107</v>
       </c>
       <c r="D50" t="n">
-        <v>0.05336652638582943</v>
+        <v>0.02795962405574169</v>
       </c>
       <c r="E50" t="n">
-        <v>0.007623789483689919</v>
+        <v>0.004659937342623616</v>
       </c>
     </row>
     <row r="51">
@@ -1293,16 +1293,16 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.8890751748749793</v>
+        <v>0.8884144241131108</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0665548950750124</v>
+        <v>0.072530624326478</v>
       </c>
       <c r="D51" t="n">
-        <v>0.03882368879375723</v>
+        <v>0.03347567276606676</v>
       </c>
       <c r="E51" t="n">
-        <v>0.005546241256251034</v>
+        <v>0.005579278794344462</v>
       </c>
     </row>
     <row r="52">
@@ -1310,16 +1310,16 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.8798537204477569</v>
+        <v>0.8433857791945566</v>
       </c>
       <c r="C52" t="n">
-        <v>0.07208776773134586</v>
+        <v>0.1017992435235382</v>
       </c>
       <c r="D52" t="n">
-        <v>0.04205119784328509</v>
+        <v>0.04698426624163302</v>
       </c>
       <c r="E52" t="n">
-        <v>0.006007313977612156</v>
+        <v>0.00783071104027217</v>
       </c>
     </row>
     <row r="53">
@@ -1327,16 +1327,16 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.8587639879417031</v>
+        <v>0.8957201890905715</v>
       </c>
       <c r="C53" t="n">
-        <v>0.08474160723497816</v>
+        <v>0.06778187709112853</v>
       </c>
       <c r="D53" t="n">
-        <v>0.04943260422040393</v>
+        <v>0.03128394327282855</v>
       </c>
       <c r="E53" t="n">
-        <v>0.007061800602914847</v>
+        <v>0.005213990545471426</v>
       </c>
     </row>
     <row r="54">
@@ -1344,16 +1344,16 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.9306002368759806</v>
+        <v>0.8963997903102687</v>
       </c>
       <c r="C54" t="n">
-        <v>0.04163985787441164</v>
+        <v>0.06734013629832533</v>
       </c>
       <c r="D54" t="n">
-        <v>0.02428991709340679</v>
+        <v>0.03108006290691938</v>
       </c>
       <c r="E54" t="n">
-        <v>0.003469988156200971</v>
+        <v>0.005180010484486564</v>
       </c>
     </row>
     <row r="55">
@@ -1361,16 +1361,16 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.9575169679578842</v>
+        <v>0.7894591502021278</v>
       </c>
       <c r="C55" t="n">
-        <v>0.02548981922526947</v>
+        <v>0.136851552368617</v>
       </c>
       <c r="D55" t="n">
-        <v>0.01486906121474053</v>
+        <v>0.06316225493936167</v>
       </c>
       <c r="E55" t="n">
-        <v>0.00212415160210579</v>
+        <v>0.01052704248989361</v>
       </c>
     </row>
     <row r="56">
@@ -1378,16 +1378,16 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.8631575802624823</v>
+        <v>0.9134029613296364</v>
       </c>
       <c r="C56" t="n">
-        <v>0.08210545184251059</v>
+        <v>0.05628807513573635</v>
       </c>
       <c r="D56" t="n">
-        <v>0.04789484690813117</v>
+        <v>0.02597911160110908</v>
       </c>
       <c r="E56" t="n">
-        <v>0.006842120986875883</v>
+        <v>0.004329851933518181</v>
       </c>
     </row>
     <row r="57">
@@ -1395,16 +1395,16 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.8251196224064886</v>
+        <v>0.8553272912427105</v>
       </c>
       <c r="C57" t="n">
-        <v>0.1049282265561068</v>
+        <v>0.09403726069223821</v>
       </c>
       <c r="D57" t="n">
-        <v>0.06120813215772898</v>
+        <v>0.04340181262718686</v>
       </c>
       <c r="E57" t="n">
-        <v>0.008744018879675569</v>
+        <v>0.007233635437864478</v>
       </c>
     </row>
     <row r="58">
@@ -1412,16 +1412,16 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.8522123437970864</v>
+        <v>0.8853116224353698</v>
       </c>
       <c r="C58" t="n">
-        <v>0.08867259372174814</v>
+        <v>0.07454744541700965</v>
       </c>
       <c r="D58" t="n">
-        <v>0.05172567967101974</v>
+        <v>0.03440651326938907</v>
       </c>
       <c r="E58" t="n">
-        <v>0.007389382810145679</v>
+        <v>0.005734418878231512</v>
       </c>
     </row>
     <row r="59">
@@ -1429,16 +1429,16 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.8436125135954192</v>
+        <v>0.9069398084407609</v>
       </c>
       <c r="C59" t="n">
-        <v>0.09383249184274846</v>
+        <v>0.06048912451350539</v>
       </c>
       <c r="D59" t="n">
-        <v>0.05473562024160327</v>
+        <v>0.02791805746777172</v>
       </c>
       <c r="E59" t="n">
-        <v>0.00781937432022904</v>
+        <v>0.004653009577961953</v>
       </c>
     </row>
     <row r="60">
@@ -1446,16 +1446,16 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.8295334267098925</v>
+        <v>0.8908602132849575</v>
       </c>
       <c r="C60" t="n">
-        <v>0.1022799439740645</v>
+        <v>0.07094086136477766</v>
       </c>
       <c r="D60" t="n">
-        <v>0.05966330065153762</v>
+        <v>0.03274193601451276</v>
       </c>
       <c r="E60" t="n">
-        <v>0.008523328664505376</v>
+        <v>0.005456989335752127</v>
       </c>
     </row>
     <row r="61">
@@ -1463,16 +1463,16 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.8105670068185017</v>
+        <v>0.883111552430736</v>
       </c>
       <c r="C61" t="n">
-        <v>0.113659795908899</v>
+        <v>0.07597749092002158</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0663015476135244</v>
+        <v>0.03506653427077919</v>
       </c>
       <c r="E61" t="n">
-        <v>0.009471649659074917</v>
+        <v>0.005844422378463199</v>
       </c>
     </row>
     <row r="62">
@@ -1480,16 +1480,16 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.8956841408292845</v>
+        <v>0.8463781523803573</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0625895155024293</v>
+        <v>0.09985420095276776</v>
       </c>
       <c r="D62" t="n">
-        <v>0.03651055070975043</v>
+        <v>0.04608655428589281</v>
       </c>
       <c r="E62" t="n">
-        <v>0.005215792958535775</v>
+        <v>0.007681092380982135</v>
       </c>
     </row>
     <row r="63">
@@ -1497,16 +1497,16 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.8713942707212773</v>
+        <v>0.855805750360193</v>
       </c>
       <c r="C63" t="n">
-        <v>0.07716343756723362</v>
+        <v>0.09372626226587454</v>
       </c>
       <c r="D63" t="n">
-        <v>0.04501200524755294</v>
+        <v>0.0432582748919421</v>
       </c>
       <c r="E63" t="n">
-        <v>0.006430286463936136</v>
+        <v>0.00720971248199035</v>
       </c>
     </row>
     <row r="64">
@@ -1514,16 +1514,16 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.8716972713224985</v>
+        <v>0.8669529249928312</v>
       </c>
       <c r="C64" t="n">
-        <v>0.07698163720650088</v>
+        <v>0.08648059875465974</v>
       </c>
       <c r="D64" t="n">
-        <v>0.04490595503712552</v>
+        <v>0.03991412250215065</v>
       </c>
       <c r="E64" t="n">
-        <v>0.006415136433875074</v>
+        <v>0.006652353750358442</v>
       </c>
     </row>
     <row r="65">
@@ -1531,16 +1531,16 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.8432766530839596</v>
+        <v>0.7745925087912415</v>
       </c>
       <c r="C65" t="n">
-        <v>0.09403400814962423</v>
+        <v>0.146514869285693</v>
       </c>
       <c r="D65" t="n">
-        <v>0.05485317142061413</v>
+        <v>0.06762224736262754</v>
       </c>
       <c r="E65" t="n">
-        <v>0.00783616734580202</v>
+        <v>0.01127037456043792</v>
       </c>
     </row>
     <row r="66">
@@ -1548,16 +1548,16 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.8858590202829564</v>
+        <v>0.874358974055767</v>
       </c>
       <c r="C66" t="n">
-        <v>0.06848458783022617</v>
+        <v>0.08166666686375144</v>
       </c>
       <c r="D66" t="n">
-        <v>0.03994934290096527</v>
+        <v>0.03769230778326989</v>
       </c>
       <c r="E66" t="n">
-        <v>0.005707048985852181</v>
+        <v>0.00628205129721165</v>
       </c>
     </row>
     <row r="67">
@@ -1565,16 +1565,16 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.8507214140829342</v>
+        <v>0.8484456198002642</v>
       </c>
       <c r="C67" t="n">
-        <v>0.08956715155023946</v>
+        <v>0.09851034712982826</v>
       </c>
       <c r="D67" t="n">
-        <v>0.05224750507097302</v>
+        <v>0.04546631405992073</v>
       </c>
       <c r="E67" t="n">
-        <v>0.007463929295853289</v>
+        <v>0.007577719009986789</v>
       </c>
     </row>
     <row r="68">
@@ -1582,16 +1582,16 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.9098355676904739</v>
+        <v>0.8999718830539869</v>
       </c>
       <c r="C68" t="n">
-        <v>0.05409865938571565</v>
+        <v>0.06501827601490852</v>
       </c>
       <c r="D68" t="n">
-        <v>0.03155755130833413</v>
+        <v>0.03000843508380393</v>
       </c>
       <c r="E68" t="n">
-        <v>0.004508221615476304</v>
+        <v>0.005001405847300655</v>
       </c>
     </row>
     <row r="69">
@@ -1599,16 +1599,16 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.8700385059362552</v>
+        <v>0.8628161232566721</v>
       </c>
       <c r="C69" t="n">
-        <v>0.07797689643824687</v>
+        <v>0.08916951988316313</v>
       </c>
       <c r="D69" t="n">
-        <v>0.04548652292231067</v>
+        <v>0.04115516302299836</v>
       </c>
       <c r="E69" t="n">
-        <v>0.006498074703187241</v>
+        <v>0.006859193837166395</v>
       </c>
     </row>
     <row r="70">
@@ -1616,16 +1616,16 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.7934285911601259</v>
+        <v>0.9380157298903961</v>
       </c>
       <c r="C70" t="n">
-        <v>0.1239428453039245</v>
+        <v>0.04028977557124257</v>
       </c>
       <c r="D70" t="n">
-        <v>0.07229999309395593</v>
+        <v>0.01859528103288118</v>
       </c>
       <c r="E70" t="n">
-        <v>0.01032857044199371</v>
+        <v>0.003099213505480198</v>
       </c>
     </row>
     <row r="71">
@@ -1633,16 +1633,16 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.8649876037092777</v>
+        <v>0.8589153383449291</v>
       </c>
       <c r="C71" t="n">
-        <v>0.08100743777443335</v>
+        <v>0.09170503007579611</v>
       </c>
       <c r="D71" t="n">
-        <v>0.04725433870175279</v>
+        <v>0.04232539849652128</v>
       </c>
       <c r="E71" t="n">
-        <v>0.006750619814536113</v>
+        <v>0.007054233082753547</v>
       </c>
     </row>
     <row r="72">
@@ -1650,16 +1650,16 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.8615654921691707</v>
+        <v>0.7960264848680612</v>
       </c>
       <c r="C72" t="n">
-        <v>0.08306070469849759</v>
+        <v>0.1325827848357602</v>
       </c>
       <c r="D72" t="n">
-        <v>0.04845207774079027</v>
+        <v>0.06119205453958165</v>
       </c>
       <c r="E72" t="n">
-        <v>0.006921725391541467</v>
+        <v>0.01019867575659694</v>
       </c>
     </row>
     <row r="73">
@@ -1667,16 +1667,16 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.8317262152832003</v>
+        <v>0.8364816564606304</v>
       </c>
       <c r="C73" t="n">
-        <v>0.1009642708300798</v>
+        <v>0.1062869233005902</v>
       </c>
       <c r="D73" t="n">
-        <v>0.05889582465087988</v>
+        <v>0.04905550306181087</v>
       </c>
       <c r="E73" t="n">
-        <v>0.008413689235839983</v>
+        <v>0.008175917176968478</v>
       </c>
     </row>
     <row r="74">
@@ -1684,16 +1684,16 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.8597357833954712</v>
+        <v>0.8343660264648294</v>
       </c>
       <c r="C74" t="n">
-        <v>0.08415852996271729</v>
+        <v>0.1076620827978609</v>
       </c>
       <c r="D74" t="n">
-        <v>0.04909247581158508</v>
+        <v>0.04969019206055118</v>
       </c>
       <c r="E74" t="n">
-        <v>0.007013210830226441</v>
+        <v>0.008281698676758532</v>
       </c>
     </row>
     <row r="75">
@@ -1701,16 +1701,16 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.8845134258628206</v>
+        <v>0.8513365665933882</v>
       </c>
       <c r="C75" t="n">
-        <v>0.06929194448230766</v>
+        <v>0.09663123171429767</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0404203009480128</v>
+        <v>0.04459903002198354</v>
       </c>
       <c r="E75" t="n">
-        <v>0.005774328706858973</v>
+        <v>0.007433171670330591</v>
       </c>
     </row>
     <row r="76">
@@ -1718,16 +1718,16 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.8256050747845184</v>
+        <v>0.8387906570705126</v>
       </c>
       <c r="C76" t="n">
-        <v>0.104636955129289</v>
+        <v>0.1047860729041668</v>
       </c>
       <c r="D76" t="n">
-        <v>0.06103822382541856</v>
+        <v>0.04836280287884622</v>
       </c>
       <c r="E76" t="n">
-        <v>0.008719746260774082</v>
+        <v>0.008060467146474371</v>
       </c>
     </row>
     <row r="77">
@@ -1735,16 +1735,16 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.8678256755278579</v>
+        <v>0.8466503013914166</v>
       </c>
       <c r="C77" t="n">
-        <v>0.07930459468328523</v>
+        <v>0.09967730409557921</v>
       </c>
       <c r="D77" t="n">
-        <v>0.04626101356524972</v>
+        <v>0.04600490958257501</v>
       </c>
       <c r="E77" t="n">
-        <v>0.006608716223607103</v>
+        <v>0.00766748493042917</v>
       </c>
     </row>
     <row r="78">
@@ -1752,16 +1752,16 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.8597443918304091</v>
+        <v>0.8692514733085733</v>
       </c>
       <c r="C78" t="n">
-        <v>0.08415336490175455</v>
+        <v>0.08498654234942733</v>
       </c>
       <c r="D78" t="n">
-        <v>0.04908946285935682</v>
+        <v>0.039224558007428</v>
       </c>
       <c r="E78" t="n">
-        <v>0.007012780408479547</v>
+        <v>0.006537426334571334</v>
       </c>
     </row>
     <row r="79">
@@ -1769,16 +1769,16 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.8951133959655169</v>
+        <v>0.8277975802759392</v>
       </c>
       <c r="C79" t="n">
-        <v>0.06293196242068988</v>
+        <v>0.1119315728206395</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0367103114120691</v>
+        <v>0.05166072591721824</v>
       </c>
       <c r="E79" t="n">
-        <v>0.005244330201724157</v>
+        <v>0.00861012098620304</v>
       </c>
     </row>
     <row r="80">
@@ -1786,16 +1786,16 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.802273812273284</v>
+        <v>0.8410115876723446</v>
       </c>
       <c r="C80" t="n">
-        <v>0.1186357126360296</v>
+        <v>0.103342468012976</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0692041657043506</v>
+        <v>0.04769652369829661</v>
       </c>
       <c r="E80" t="n">
-        <v>0.009886309386335801</v>
+        <v>0.007949420616382768</v>
       </c>
     </row>
     <row r="81">
@@ -1803,16 +1803,16 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.9201848709085709</v>
+        <v>0.9236295455098478</v>
       </c>
       <c r="C81" t="n">
-        <v>0.04788907745485744</v>
+        <v>0.04964079541859895</v>
       </c>
       <c r="D81" t="n">
-        <v>0.02793529518200017</v>
+        <v>0.02291113634704567</v>
       </c>
       <c r="E81" t="n">
-        <v>0.003990756454571454</v>
+        <v>0.003818522724507611</v>
       </c>
     </row>
     <row r="82">
@@ -1820,16 +1820,16 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.7768293866456684</v>
+        <v>0.8860559988586219</v>
       </c>
       <c r="C82" t="n">
-        <v>0.133902368012599</v>
+        <v>0.0740636007418958</v>
       </c>
       <c r="D82" t="n">
-        <v>0.07810971467401606</v>
+        <v>0.03418320034241344</v>
       </c>
       <c r="E82" t="n">
-        <v>0.01115853066771658</v>
+        <v>0.005697200057068908</v>
       </c>
     </row>
     <row r="83">
@@ -1837,16 +1837,16 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.8034849701888011</v>
+        <v>0.8900995329438379</v>
       </c>
       <c r="C83" t="n">
-        <v>0.1179090178867194</v>
+        <v>0.07143530358650535</v>
       </c>
       <c r="D83" t="n">
-        <v>0.06878026043391963</v>
+        <v>0.03297014011684862</v>
       </c>
       <c r="E83" t="n">
-        <v>0.009825751490559947</v>
+        <v>0.005495023352808104</v>
       </c>
     </row>
     <row r="84">
@@ -1854,16 +1854,16 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.9369489739814412</v>
+        <v>0.7704298989007845</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0378306156111353</v>
+        <v>0.1492205657144901</v>
       </c>
       <c r="D84" t="n">
-        <v>0.02206785910649559</v>
+        <v>0.06887103032976465</v>
       </c>
       <c r="E84" t="n">
-        <v>0.003152551300927942</v>
+        <v>0.01147850505496078</v>
       </c>
     </row>
     <row r="85">
@@ -1871,16 +1871,16 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.856211329353269</v>
+        <v>0.891479712816183</v>
       </c>
       <c r="C85" t="n">
-        <v>0.08627320238803857</v>
+        <v>0.07053818666948106</v>
       </c>
       <c r="D85" t="n">
-        <v>0.05032603472635583</v>
+        <v>0.0325560861551451</v>
       </c>
       <c r="E85" t="n">
-        <v>0.007189433532336548</v>
+        <v>0.005426014359190851</v>
       </c>
     </row>
     <row r="86">
@@ -1888,16 +1888,16 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.8376056534185294</v>
+        <v>0.8421712897725087</v>
       </c>
       <c r="C86" t="n">
-        <v>0.09743660794888233</v>
+        <v>0.1025886616478694</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0568380213035147</v>
+        <v>0.0473486130682474</v>
       </c>
       <c r="E86" t="n">
-        <v>0.008119717329073529</v>
+        <v>0.007891435511374568</v>
       </c>
     </row>
     <row r="87">
@@ -1905,16 +1905,16 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.8359998222802771</v>
+        <v>0.7990659918338039</v>
       </c>
       <c r="C87" t="n">
-        <v>0.09840010663183371</v>
+        <v>0.1306071053080275</v>
       </c>
       <c r="D87" t="n">
-        <v>0.057400062201903</v>
+        <v>0.06028020244985883</v>
       </c>
       <c r="E87" t="n">
-        <v>0.008200008885986144</v>
+        <v>0.01004670040830981</v>
       </c>
     </row>
     <row r="88">
@@ -1922,16 +1922,16 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.8632414607124194</v>
+        <v>0.85879683998384</v>
       </c>
       <c r="C88" t="n">
-        <v>0.08205512357254838</v>
+        <v>0.09178205401050397</v>
       </c>
       <c r="D88" t="n">
-        <v>0.04786548875065322</v>
+        <v>0.04236094800484799</v>
       </c>
       <c r="E88" t="n">
-        <v>0.006837926964379033</v>
+        <v>0.007060158000807998</v>
       </c>
     </row>
     <row r="89">
@@ -1939,16 +1939,16 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.8786997305547619</v>
+        <v>0.8373153862321533</v>
       </c>
       <c r="C89" t="n">
-        <v>0.07278016166714285</v>
+        <v>0.1057449989491004</v>
       </c>
       <c r="D89" t="n">
-        <v>0.04245509430583333</v>
+        <v>0.04880538413035401</v>
       </c>
       <c r="E89" t="n">
-        <v>0.006065013472261904</v>
+        <v>0.008134230688392335</v>
       </c>
     </row>
     <row r="90">
@@ -1956,16 +1956,16 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.8319488320665324</v>
+        <v>0.9213714674752279</v>
       </c>
       <c r="C90" t="n">
-        <v>0.1008307007600806</v>
+        <v>0.05110854614110186</v>
       </c>
       <c r="D90" t="n">
-        <v>0.05881790877671367</v>
+        <v>0.02358855975743163</v>
       </c>
       <c r="E90" t="n">
-        <v>0.008402558396673383</v>
+        <v>0.003931426626238604</v>
       </c>
     </row>
     <row r="91">
@@ -1973,16 +1973,16 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.8536536418991197</v>
+        <v>0.894477273992104</v>
       </c>
       <c r="C91" t="n">
-        <v>0.08780781486052815</v>
+        <v>0.06858977190513242</v>
       </c>
       <c r="D91" t="n">
-        <v>0.05122122533530809</v>
+        <v>0.03165681780236881</v>
       </c>
       <c r="E91" t="n">
-        <v>0.007317317905044013</v>
+        <v>0.005276136300394802</v>
       </c>
     </row>
     <row r="92">
@@ -1990,16 +1990,16 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.8225368556025849</v>
+        <v>0.8837054347249782</v>
       </c>
       <c r="C92" t="n">
-        <v>0.106477886638449</v>
+        <v>0.07559146742876417</v>
       </c>
       <c r="D92" t="n">
-        <v>0.06211210053909526</v>
+        <v>0.03488836958250654</v>
       </c>
       <c r="E92" t="n">
-        <v>0.008873157219870753</v>
+        <v>0.00581472826375109</v>
       </c>
     </row>
     <row r="93">
@@ -2007,16 +2007,16 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.8854448709134463</v>
+        <v>0.8190307702787546</v>
       </c>
       <c r="C93" t="n">
-        <v>0.06873307745193225</v>
+        <v>0.1176299993188095</v>
       </c>
       <c r="D93" t="n">
-        <v>0.04009429518029381</v>
+        <v>0.05429076891637362</v>
       </c>
       <c r="E93" t="n">
-        <v>0.005727756454327687</v>
+        <v>0.009048461486062271</v>
       </c>
     </row>
     <row r="94">
@@ -2024,16 +2024,16 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.8799385125904032</v>
+        <v>0.9028034742923445</v>
       </c>
       <c r="C94" t="n">
-        <v>0.07203689244575806</v>
+        <v>0.06317774170997606</v>
       </c>
       <c r="D94" t="n">
-        <v>0.04202152059335887</v>
+        <v>0.02915895771229664</v>
       </c>
       <c r="E94" t="n">
-        <v>0.006003074370479838</v>
+        <v>0.004859826285382774</v>
       </c>
     </row>
     <row r="95">
@@ -2041,16 +2041,16 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.8823419504334882</v>
+        <v>0.9586711176239029</v>
       </c>
       <c r="C95" t="n">
-        <v>0.07059482973990709</v>
+        <v>0.02686377354446312</v>
       </c>
       <c r="D95" t="n">
-        <v>0.04118031734827914</v>
+        <v>0.01239866471282913</v>
       </c>
       <c r="E95" t="n">
-        <v>0.005882902478325592</v>
+        <v>0.002066444118804855</v>
       </c>
     </row>
     <row r="96">
@@ -2058,16 +2058,16 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.7828977318258438</v>
+        <v>0.8037422765997729</v>
       </c>
       <c r="C96" t="n">
-        <v>0.1302613609044937</v>
+        <v>0.1275675202101476</v>
       </c>
       <c r="D96" t="n">
-        <v>0.07598579386095468</v>
+        <v>0.05887731702006812</v>
       </c>
       <c r="E96" t="n">
-        <v>0.01085511340870781</v>
+        <v>0.009812886170011354</v>
       </c>
     </row>
     <row r="97">
@@ -2075,16 +2075,16 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.7858780711225067</v>
+        <v>0.8165723968289842</v>
       </c>
       <c r="C97" t="n">
-        <v>0.1284731573264959</v>
+        <v>0.1192279420611603</v>
       </c>
       <c r="D97" t="n">
-        <v>0.07494267510712263</v>
+        <v>0.05502828095130474</v>
       </c>
       <c r="E97" t="n">
-        <v>0.01070609644387466</v>
+        <v>0.00917138015855079</v>
       </c>
     </row>
     <row r="98">
@@ -2092,16 +2092,16 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.8545977240202002</v>
+        <v>0.908800274102364</v>
       </c>
       <c r="C98" t="n">
-        <v>0.08724136558787988</v>
+        <v>0.05927982183346342</v>
       </c>
       <c r="D98" t="n">
-        <v>0.05089079659292994</v>
+        <v>0.02735991776929081</v>
       </c>
       <c r="E98" t="n">
-        <v>0.007270113798989991</v>
+        <v>0.004559986294881802</v>
       </c>
     </row>
     <row r="99">
@@ -2109,16 +2109,16 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.8521025361993155</v>
+        <v>0.7794261381273039</v>
       </c>
       <c r="C99" t="n">
-        <v>0.08873847828041068</v>
+        <v>0.1433730102172525</v>
       </c>
       <c r="D99" t="n">
-        <v>0.05176411233023956</v>
+        <v>0.06617215856180883</v>
       </c>
       <c r="E99" t="n">
-        <v>0.007394873190034224</v>
+        <v>0.01102869309363481</v>
       </c>
     </row>
     <row r="100">
@@ -2126,16 +2126,16 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.9150306384143028</v>
+        <v>0.8122814707136335</v>
       </c>
       <c r="C100" t="n">
-        <v>0.05098161695141834</v>
+        <v>0.1220170440361382</v>
       </c>
       <c r="D100" t="n">
-        <v>0.02973927655499403</v>
+        <v>0.05631555878590994</v>
       </c>
       <c r="E100" t="n">
-        <v>0.004248468079284862</v>
+        <v>0.009385926464318323</v>
       </c>
     </row>
     <row r="101">
@@ -2143,16 +2143,16 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.8572163906833291</v>
+        <v>0.8439642467197781</v>
       </c>
       <c r="C101" t="n">
-        <v>0.08567016559000253</v>
+        <v>0.1014232396321442</v>
       </c>
       <c r="D101" t="n">
-        <v>0.04997426326083481</v>
+        <v>0.04681072598406657</v>
       </c>
       <c r="E101" t="n">
-        <v>0.007139180465833545</v>
+        <v>0.007801787664011095</v>
       </c>
     </row>
     <row r="102">
@@ -2160,16 +2160,16 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>0.8212736419615685</v>
+        <v>0.854478048947598</v>
       </c>
       <c r="C102" t="n">
-        <v>0.1072358148230589</v>
+        <v>0.09458926818406127</v>
       </c>
       <c r="D102" t="n">
-        <v>0.06255422531345102</v>
+        <v>0.04365658531572059</v>
       </c>
       <c r="E102" t="n">
-        <v>0.008936317901921577</v>
+        <v>0.007276097552620098</v>
       </c>
     </row>
     <row r="103">
@@ -2177,16 +2177,16 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>0.7909085316472917</v>
+        <v>0.8242257885114568</v>
       </c>
       <c r="C103" t="n">
-        <v>0.125454881011625</v>
+        <v>0.1142532374675531</v>
       </c>
       <c r="D103" t="n">
-        <v>0.07318201392344791</v>
+        <v>0.05273226344656296</v>
       </c>
       <c r="E103" t="n">
-        <v>0.01045457341763542</v>
+        <v>0.008788710574427162</v>
       </c>
     </row>
     <row r="104">
@@ -2194,16 +2194,16 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>0.7964083446741667</v>
+        <v>0.933288448977609</v>
       </c>
       <c r="C104" t="n">
-        <v>0.1221549931955</v>
+        <v>0.04336250816455416</v>
       </c>
       <c r="D104" t="n">
-        <v>0.07125707936404166</v>
+        <v>0.0200134653067173</v>
       </c>
       <c r="E104" t="n">
-        <v>0.01017958276629167</v>
+        <v>0.003335577551119551</v>
       </c>
     </row>
     <row r="105">
@@ -2211,16 +2211,16 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>0.8236945440118451</v>
+        <v>0.9064214096156581</v>
       </c>
       <c r="C105" t="n">
-        <v>0.105783273592893</v>
+        <v>0.06082608374982224</v>
       </c>
       <c r="D105" t="n">
-        <v>0.06170690959585422</v>
+        <v>0.02807357711530257</v>
       </c>
       <c r="E105" t="n">
-        <v>0.008815272799407747</v>
+        <v>0.004678929519217096</v>
       </c>
     </row>
     <row r="106">
@@ -2228,16 +2228,16 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>0.8259435842086612</v>
+        <v>0.8487483567075985</v>
       </c>
       <c r="C106" t="n">
-        <v>0.1044338494748033</v>
+        <v>0.09831356814006097</v>
       </c>
       <c r="D106" t="n">
-        <v>0.06091974552696857</v>
+        <v>0.04537549298772044</v>
       </c>
       <c r="E106" t="n">
-        <v>0.00870282078956694</v>
+        <v>0.007562582164620075</v>
       </c>
     </row>
     <row r="107">
@@ -2245,16 +2245,16 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>0.8239553278808367</v>
+        <v>0.8203034536479532</v>
       </c>
       <c r="C107" t="n">
-        <v>0.105626803271498</v>
+        <v>0.1168027551288304</v>
       </c>
       <c r="D107" t="n">
-        <v>0.06161563524170715</v>
+        <v>0.05390896390561404</v>
       </c>
       <c r="E107" t="n">
-        <v>0.008802233605958165</v>
+        <v>0.008984827317602339</v>
       </c>
     </row>
     <row r="108">
@@ -2262,16 +2262,16 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>0.8628249885285104</v>
+        <v>0.8850379970200811</v>
       </c>
       <c r="C108" t="n">
-        <v>0.08230500688289374</v>
+        <v>0.07472530193694728</v>
       </c>
       <c r="D108" t="n">
-        <v>0.04801125401502135</v>
+        <v>0.03448860089397566</v>
       </c>
       <c r="E108" t="n">
-        <v>0.00685875057357448</v>
+        <v>0.005748100148995944</v>
       </c>
     </row>
     <row r="109">
@@ -2279,16 +2279,16 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>0.8931338689914862</v>
+        <v>0.8654542292691046</v>
       </c>
       <c r="C109" t="n">
-        <v>0.0641196786051083</v>
+        <v>0.08745475097508199</v>
       </c>
       <c r="D109" t="n">
-        <v>0.03740314585297984</v>
+        <v>0.0403637312192686</v>
       </c>
       <c r="E109" t="n">
-        <v>0.005343306550425692</v>
+        <v>0.006727288536544768</v>
       </c>
     </row>
     <row r="110">
@@ -2296,16 +2296,16 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>0.8941956431973942</v>
+        <v>0.8707416810301892</v>
       </c>
       <c r="C110" t="n">
-        <v>0.06348261408156348</v>
+        <v>0.08401790733037701</v>
       </c>
       <c r="D110" t="n">
-        <v>0.03703152488091203</v>
+        <v>0.03877749569094323</v>
       </c>
       <c r="E110" t="n">
-        <v>0.005290217840130291</v>
+        <v>0.006462915948490539</v>
       </c>
     </row>
     <row r="111">
@@ -2313,16 +2313,16 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>0.8884318862820814</v>
+        <v>0.8768370558429183</v>
       </c>
       <c r="C111" t="n">
-        <v>0.06694086823075118</v>
+        <v>0.08005591370210313</v>
       </c>
       <c r="D111" t="n">
-        <v>0.03904883980127152</v>
+        <v>0.03694888324712452</v>
       </c>
       <c r="E111" t="n">
-        <v>0.005578405685895932</v>
+        <v>0.006158147207854087</v>
       </c>
     </row>
     <row r="112">
@@ -2330,16 +2330,16 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>0.8280931424326367</v>
+        <v>0.8814198327340491</v>
       </c>
       <c r="C112" t="n">
-        <v>0.103144114540418</v>
+        <v>0.07707710872286808</v>
       </c>
       <c r="D112" t="n">
-        <v>0.06016740014857717</v>
+        <v>0.03557405017978527</v>
       </c>
       <c r="E112" t="n">
-        <v>0.008595342878368167</v>
+        <v>0.005929008363297544</v>
       </c>
     </row>
     <row r="113">
@@ -2347,16 +2347,16 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>0.864393319460512</v>
+        <v>0.8481882399066722</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0813640083236928</v>
+        <v>0.09867764406066304</v>
       </c>
       <c r="D113" t="n">
-        <v>0.04746233818882079</v>
+        <v>0.04554352802799833</v>
       </c>
       <c r="E113" t="n">
-        <v>0.0067803340269744</v>
+        <v>0.007590588004666388</v>
       </c>
     </row>
     <row r="114">
@@ -2364,16 +2364,16 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>0.8351893684530622</v>
+        <v>0.8390399337204568</v>
       </c>
       <c r="C114" t="n">
-        <v>0.09888637892816265</v>
+        <v>0.1046240430817031</v>
       </c>
       <c r="D114" t="n">
-        <v>0.05768372104142821</v>
+        <v>0.04828801988386295</v>
       </c>
       <c r="E114" t="n">
-        <v>0.008240531577346888</v>
+        <v>0.00804800331397716</v>
       </c>
     </row>
     <row r="115">
@@ -2381,16 +2381,16 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>0.8872783411562413</v>
+        <v>0.7927936216459686</v>
       </c>
       <c r="C115" t="n">
-        <v>0.06763299530625523</v>
+        <v>0.1346841459301204</v>
       </c>
       <c r="D115" t="n">
-        <v>0.03945258059531555</v>
+        <v>0.06216191350620943</v>
       </c>
       <c r="E115" t="n">
-        <v>0.005636082942187937</v>
+        <v>0.01036031891770157</v>
       </c>
     </row>
     <row r="116">
@@ -2398,16 +2398,16 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>0.9218231191427343</v>
+        <v>0.8544183936333132</v>
       </c>
       <c r="C116" t="n">
-        <v>0.04690612851435942</v>
+        <v>0.09462804413834644</v>
       </c>
       <c r="D116" t="n">
-        <v>0.02736190830004299</v>
+        <v>0.04367448191000604</v>
       </c>
       <c r="E116" t="n">
-        <v>0.003908844042863286</v>
+        <v>0.007279080318334342</v>
       </c>
     </row>
     <row r="117">
@@ -2415,16 +2415,16 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>0.8943266107477107</v>
+        <v>0.8423883876146164</v>
       </c>
       <c r="C117" t="n">
-        <v>0.06340403355137358</v>
+        <v>0.1024475480504993</v>
       </c>
       <c r="D117" t="n">
-        <v>0.03698568623830126</v>
+        <v>0.04728348371561507</v>
       </c>
       <c r="E117" t="n">
-        <v>0.005283669462614465</v>
+        <v>0.007880580619269179</v>
       </c>
     </row>
     <row r="118">
@@ -2432,16 +2432,16 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>0.88501538195538</v>
+        <v>0.8826571135560137</v>
       </c>
       <c r="C118" t="n">
-        <v>0.068990770826772</v>
+        <v>0.07627287618859108</v>
       </c>
       <c r="D118" t="n">
-        <v>0.040244616315617</v>
+        <v>0.03520286593319588</v>
       </c>
       <c r="E118" t="n">
-        <v>0.005749230902231001</v>
+        <v>0.005867144322199314</v>
       </c>
     </row>
     <row r="119">
@@ -2449,16 +2449,16 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>0.8856593077090521</v>
+        <v>0.9249515460977081</v>
       </c>
       <c r="C119" t="n">
-        <v>0.06860441537456874</v>
+        <v>0.04878149503648972</v>
       </c>
       <c r="D119" t="n">
-        <v>0.04001924230183176</v>
+        <v>0.02251453617068756</v>
       </c>
       <c r="E119" t="n">
-        <v>0.005717034614547395</v>
+        <v>0.003752422695114594</v>
       </c>
     </row>
     <row r="120">
@@ -2466,16 +2466,16 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>0.7747307213627116</v>
+        <v>0.8314963873256738</v>
       </c>
       <c r="C120" t="n">
-        <v>0.135161567182373</v>
+        <v>0.109527348238312</v>
       </c>
       <c r="D120" t="n">
-        <v>0.07884424752305094</v>
+        <v>0.05055108380229787</v>
       </c>
       <c r="E120" t="n">
-        <v>0.01126346393186442</v>
+        <v>0.008425180633716311</v>
       </c>
     </row>
     <row r="121">
@@ -2483,16 +2483,16 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>0.9312268235774223</v>
+        <v>0.8276747014512352</v>
       </c>
       <c r="C121" t="n">
-        <v>0.04126390585354665</v>
+        <v>0.1120114440566971</v>
       </c>
       <c r="D121" t="n">
-        <v>0.02407061174790221</v>
+        <v>0.05169758956462943</v>
       </c>
       <c r="E121" t="n">
-        <v>0.003438658821128887</v>
+        <v>0.008616264927438239</v>
       </c>
     </row>
     <row r="122">
@@ -2500,16 +2500,16 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>0.8081087658678666</v>
+        <v>0.8585073205247911</v>
       </c>
       <c r="C122" t="n">
-        <v>0.11513474047928</v>
+        <v>0.09197024165888582</v>
       </c>
       <c r="D122" t="n">
-        <v>0.06716193194624667</v>
+        <v>0.04244780384256268</v>
       </c>
       <c r="E122" t="n">
-        <v>0.00959456170660667</v>
+        <v>0.007074633973760448</v>
       </c>
     </row>
     <row r="123">
@@ -2517,16 +2517,16 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>0.827405485320692</v>
+        <v>0.8053403305104518</v>
       </c>
       <c r="C123" t="n">
-        <v>0.1035567088075848</v>
+        <v>0.1265287851682063</v>
       </c>
       <c r="D123" t="n">
-        <v>0.06040808013775779</v>
+        <v>0.05839790084686444</v>
       </c>
       <c r="E123" t="n">
-        <v>0.008629725733965398</v>
+        <v>0.009732983474477409</v>
       </c>
     </row>
     <row r="124">
@@ -2534,16 +2534,16 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>0.8665917961655051</v>
+        <v>0.9282340466430136</v>
       </c>
       <c r="C124" t="n">
-        <v>0.08004492230069694</v>
+        <v>0.04664786968204118</v>
       </c>
       <c r="D124" t="n">
-        <v>0.04669287134207322</v>
+        <v>0.02152978600709593</v>
       </c>
       <c r="E124" t="n">
-        <v>0.006670410191724746</v>
+        <v>0.003588297667849322</v>
       </c>
     </row>
     <row r="125">
@@ -2551,16 +2551,16 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>0.9383515957264024</v>
+        <v>0.8916009757375776</v>
       </c>
       <c r="C125" t="n">
-        <v>0.03698904256415858</v>
+        <v>0.07045936577057459</v>
       </c>
       <c r="D125" t="n">
-        <v>0.02157694149575917</v>
+        <v>0.03251970727872672</v>
       </c>
       <c r="E125" t="n">
-        <v>0.003082420213679882</v>
+        <v>0.005419951213121122</v>
       </c>
     </row>
     <row r="126">
@@ -2568,16 +2568,16 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>0.8296631458050616</v>
+        <v>0.842003230137116</v>
       </c>
       <c r="C126" t="n">
-        <v>0.102202112516963</v>
+        <v>0.1026979004108746</v>
       </c>
       <c r="D126" t="n">
-        <v>0.05961789896822843</v>
+        <v>0.0473990309588652</v>
       </c>
       <c r="E126" t="n">
-        <v>0.008516842709746919</v>
+        <v>0.007899838493144202</v>
       </c>
     </row>
     <row r="127">
@@ -2585,16 +2585,16 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>0.9195063079563557</v>
+        <v>0.8851937993919361</v>
       </c>
       <c r="C127" t="n">
-        <v>0.04829621522618659</v>
+        <v>0.07462403039524154</v>
       </c>
       <c r="D127" t="n">
-        <v>0.02817279221527551</v>
+        <v>0.03444186018241917</v>
       </c>
       <c r="E127" t="n">
-        <v>0.004024684602182216</v>
+        <v>0.005740310030403196</v>
       </c>
     </row>
     <row r="128">
@@ -2602,16 +2602,16 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>0.7609738925712441</v>
+        <v>0.8565528955102384</v>
       </c>
       <c r="C128" t="n">
-        <v>0.1434156644572535</v>
+        <v>0.09324061791834505</v>
       </c>
       <c r="D128" t="n">
-        <v>0.08365913760006455</v>
+        <v>0.04303413134692848</v>
       </c>
       <c r="E128" t="n">
-        <v>0.01195130537143779</v>
+        <v>0.007172355224488081</v>
       </c>
     </row>
     <row r="129">
@@ -2619,16 +2619,16 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>0.9185383301201331</v>
+        <v>0.8014972749315245</v>
       </c>
       <c r="C129" t="n">
-        <v>0.04887700192792015</v>
+        <v>0.1290267712945091</v>
       </c>
       <c r="D129" t="n">
-        <v>0.02851158445795342</v>
+        <v>0.05955081752054266</v>
       </c>
       <c r="E129" t="n">
-        <v>0.004073083493993346</v>
+        <v>0.009925136253423778</v>
       </c>
     </row>
     <row r="130">
@@ -2636,16 +2636,16 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>0.9194441491516228</v>
+        <v>0.8722508458568828</v>
       </c>
       <c r="C130" t="n">
-        <v>0.04833351050902635</v>
+        <v>0.08303695019302616</v>
       </c>
       <c r="D130" t="n">
-        <v>0.02819454779693203</v>
+        <v>0.03832474624293514</v>
       </c>
       <c r="E130" t="n">
-        <v>0.004027792542418862</v>
+        <v>0.006387457707155858</v>
       </c>
     </row>
     <row r="131">
@@ -2653,16 +2653,16 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>0.7905006285566939</v>
+        <v>0.8457816501958371</v>
       </c>
       <c r="C131" t="n">
-        <v>0.1256996228659837</v>
+        <v>0.1002419273727059</v>
       </c>
       <c r="D131" t="n">
-        <v>0.07332478000515713</v>
+        <v>0.04626550494124888</v>
       </c>
       <c r="E131" t="n">
-        <v>0.01047496857216531</v>
+        <v>0.007710917490208147</v>
       </c>
     </row>
     <row r="132">
@@ -2670,16 +2670,16 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>0.9186040046510687</v>
+        <v>0.8475528991025838</v>
       </c>
       <c r="C132" t="n">
-        <v>0.04883759720935876</v>
+        <v>0.09909061558332054</v>
       </c>
       <c r="D132" t="n">
-        <v>0.02848859837212594</v>
+        <v>0.04573413026922486</v>
       </c>
       <c r="E132" t="n">
-        <v>0.004069799767446564</v>
+        <v>0.00762235504487081</v>
       </c>
     </row>
     <row r="133">
@@ -2687,16 +2687,16 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>0.8256243991907933</v>
+        <v>0.8117267505558244</v>
       </c>
       <c r="C133" t="n">
-        <v>0.104625360485524</v>
+        <v>0.1223776121387141</v>
       </c>
       <c r="D133" t="n">
-        <v>0.06103146028322233</v>
+        <v>0.05648197483325267</v>
       </c>
       <c r="E133" t="n">
-        <v>0.008718780040460334</v>
+        <v>0.009413662472208779</v>
       </c>
     </row>
     <row r="134">
@@ -2704,16 +2704,16 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>0.8868021103014549</v>
+        <v>0.9465403746058717</v>
       </c>
       <c r="C134" t="n">
-        <v>0.06791873381912703</v>
+        <v>0.03474875650618339</v>
       </c>
       <c r="D134" t="n">
-        <v>0.03961926139449076</v>
+        <v>0.01603788761823849</v>
       </c>
       <c r="E134" t="n">
-        <v>0.005659894484927253</v>
+        <v>0.002672981269706415</v>
       </c>
     </row>
     <row r="135">
@@ -2721,16 +2721,16 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>0.8135359593339562</v>
+        <v>0.9207242072488147</v>
       </c>
       <c r="C135" t="n">
-        <v>0.1118784243996263</v>
+        <v>0.05152926528827047</v>
       </c>
       <c r="D135" t="n">
-        <v>0.06526241423311534</v>
+        <v>0.02378273782535561</v>
       </c>
       <c r="E135" t="n">
-        <v>0.009323202033302192</v>
+        <v>0.003963789637559267</v>
       </c>
     </row>
     <row r="136">
@@ -2738,16 +2738,16 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>0.8817712184138508</v>
+        <v>0.8038092740118055</v>
       </c>
       <c r="C136" t="n">
-        <v>0.07093726895168954</v>
+        <v>0.1275239718923264</v>
       </c>
       <c r="D136" t="n">
-        <v>0.04138007355515223</v>
+        <v>0.05885721779645836</v>
       </c>
       <c r="E136" t="n">
-        <v>0.005911439079307463</v>
+        <v>0.009809536299409727</v>
       </c>
     </row>
     <row r="137">
@@ -2755,16 +2755,16 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>0.7996368191842126</v>
+        <v>0.8030212468789548</v>
       </c>
       <c r="C137" t="n">
-        <v>0.1202179084894724</v>
+        <v>0.1280361895286794</v>
       </c>
       <c r="D137" t="n">
-        <v>0.07012711328552559</v>
+        <v>0.05909362593631355</v>
       </c>
       <c r="E137" t="n">
-        <v>0.01001815904078937</v>
+        <v>0.00984893765605226</v>
       </c>
     </row>
     <row r="138">
@@ -2772,16 +2772,16 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>0.8287552142399138</v>
+        <v>0.8601481763960853</v>
       </c>
       <c r="C138" t="n">
-        <v>0.1027468714560517</v>
+        <v>0.09090368534254455</v>
       </c>
       <c r="D138" t="n">
-        <v>0.05993567501603016</v>
+        <v>0.0419555470811744</v>
       </c>
       <c r="E138" t="n">
-        <v>0.008562239288004309</v>
+        <v>0.006992591180195734</v>
       </c>
     </row>
     <row r="139">
@@ -2789,16 +2789,16 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>0.8603226875486901</v>
+        <v>0.8526635943004784</v>
       </c>
       <c r="C139" t="n">
-        <v>0.08380638747078592</v>
+        <v>0.09576866370468902</v>
       </c>
       <c r="D139" t="n">
-        <v>0.04888705935795845</v>
+        <v>0.04420092170985646</v>
       </c>
       <c r="E139" t="n">
-        <v>0.006983865622565495</v>
+        <v>0.007366820284976078</v>
       </c>
     </row>
     <row r="140">
@@ -2806,16 +2806,16 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>0.8329906026978127</v>
+        <v>0.8250038832939492</v>
       </c>
       <c r="C140" t="n">
-        <v>0.1002056383813124</v>
+        <v>0.113747475858933</v>
       </c>
       <c r="D140" t="n">
-        <v>0.05845328905576556</v>
+        <v>0.05249883501181522</v>
       </c>
       <c r="E140" t="n">
-        <v>0.008350469865109367</v>
+        <v>0.008749805835302538</v>
       </c>
     </row>
     <row r="141">
@@ -2823,16 +2823,16 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>0.8436455269862904</v>
+        <v>0.8428329359054143</v>
       </c>
       <c r="C141" t="n">
-        <v>0.09381268380822579</v>
+        <v>0.1021585916614807</v>
       </c>
       <c r="D141" t="n">
-        <v>0.05472406555479837</v>
+        <v>0.0471501192283757</v>
       </c>
       <c r="E141" t="n">
-        <v>0.007817723650685482</v>
+        <v>0.007858353204729286</v>
       </c>
     </row>
     <row r="142">
@@ -2840,16 +2840,16 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>0.8915477508102703</v>
+        <v>0.8758330932320845</v>
       </c>
       <c r="C142" t="n">
-        <v>0.06507134951383783</v>
+        <v>0.0807084893991451</v>
       </c>
       <c r="D142" t="n">
-        <v>0.0379582872164054</v>
+        <v>0.03725007203037466</v>
       </c>
       <c r="E142" t="n">
-        <v>0.005422612459486487</v>
+        <v>0.006208345338395777</v>
       </c>
     </row>
     <row r="143">
@@ -2857,16 +2857,16 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>0.8698333038569281</v>
+        <v>0.8534555655248426</v>
       </c>
       <c r="C143" t="n">
-        <v>0.07810001768584311</v>
+        <v>0.09525388240885233</v>
       </c>
       <c r="D143" t="n">
-        <v>0.04555834365007515</v>
+        <v>0.04396333034254722</v>
       </c>
       <c r="E143" t="n">
-        <v>0.006508334807153593</v>
+        <v>0.007327221723757871</v>
       </c>
     </row>
     <row r="144">
@@ -2874,16 +2874,16 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>0.8713426697933538</v>
+        <v>0.9026069858541688</v>
       </c>
       <c r="C144" t="n">
-        <v>0.07719439812398769</v>
+        <v>0.0633054591947903</v>
       </c>
       <c r="D144" t="n">
-        <v>0.04503006557232615</v>
+        <v>0.02921790424374937</v>
       </c>
       <c r="E144" t="n">
-        <v>0.006432866510332308</v>
+        <v>0.004869650707291562</v>
       </c>
     </row>
     <row r="145">
@@ -2891,16 +2891,16 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>0.9484050670674761</v>
+        <v>0.8114094819148213</v>
       </c>
       <c r="C145" t="n">
-        <v>0.03095695975951436</v>
+        <v>0.1225838367553661</v>
       </c>
       <c r="D145" t="n">
-        <v>0.01805822652638337</v>
+        <v>0.0565771554255536</v>
       </c>
       <c r="E145" t="n">
-        <v>0.002579746646626197</v>
+        <v>0.009429525904258934</v>
       </c>
     </row>
     <row r="146">
@@ -2908,16 +2908,16 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>0.837588830600132</v>
+        <v>0.8916798016801918</v>
       </c>
       <c r="C146" t="n">
-        <v>0.09744670163992079</v>
+        <v>0.07040812890787534</v>
       </c>
       <c r="D146" t="n">
-        <v>0.0568439092899538</v>
+        <v>0.03249605949594246</v>
       </c>
       <c r="E146" t="n">
-        <v>0.0081205584699934</v>
+        <v>0.005416009915990411</v>
       </c>
     </row>
     <row r="147">
@@ -2925,16 +2925,16 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>0.7869583308262016</v>
+        <v>0.9000695186949537</v>
       </c>
       <c r="C147" t="n">
-        <v>0.127825001504279</v>
+        <v>0.06495481284828013</v>
       </c>
       <c r="D147" t="n">
-        <v>0.07456458421082944</v>
+        <v>0.0299791443915139</v>
       </c>
       <c r="E147" t="n">
-        <v>0.01065208345868992</v>
+        <v>0.004996524065252317</v>
       </c>
     </row>
     <row r="148">
@@ -2942,16 +2942,16 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>0.8953450350284823</v>
+        <v>0.9112873927197538</v>
       </c>
       <c r="C148" t="n">
-        <v>0.06279297898291063</v>
+        <v>0.05766319473216004</v>
       </c>
       <c r="D148" t="n">
-        <v>0.0366292377400312</v>
+        <v>0.02661378218407386</v>
       </c>
       <c r="E148" t="n">
-        <v>0.005232748248575886</v>
+        <v>0.004435630364012311</v>
       </c>
     </row>
     <row r="149">
@@ -2959,16 +2959,16 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>0.8670631857100564</v>
+        <v>0.9055050003036416</v>
       </c>
       <c r="C149" t="n">
-        <v>0.07976208857396618</v>
+        <v>0.06142174980263299</v>
       </c>
       <c r="D149" t="n">
-        <v>0.04652788500148027</v>
+        <v>0.02834849990890753</v>
       </c>
       <c r="E149" t="n">
-        <v>0.006646840714497182</v>
+        <v>0.004724749984817922</v>
       </c>
     </row>
     <row r="150">
@@ -2976,16 +2976,16 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>0.867152335673523</v>
+        <v>0.9374998218160977</v>
       </c>
       <c r="C150" t="n">
-        <v>0.07970859859588619</v>
+        <v>0.0406251158195365</v>
       </c>
       <c r="D150" t="n">
-        <v>0.04649668251426695</v>
+        <v>0.01875005345517069</v>
       </c>
       <c r="E150" t="n">
-        <v>0.006642383216323849</v>
+        <v>0.003125008909195115</v>
       </c>
     </row>
     <row r="151">
@@ -2993,16 +2993,16 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>0.9097101544995807</v>
+        <v>0.8936763709299496</v>
       </c>
       <c r="C151" t="n">
-        <v>0.05417390730025157</v>
+        <v>0.06911035889553278</v>
       </c>
       <c r="D151" t="n">
-        <v>0.03160144592514675</v>
+        <v>0.03189708872101513</v>
       </c>
       <c r="E151" t="n">
-        <v>0.004514492275020965</v>
+        <v>0.005316181453502523</v>
       </c>
     </row>
     <row r="152">
@@ -3010,16 +3010,16 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>0.9278576444517674</v>
+        <v>0.8429152514748079</v>
       </c>
       <c r="C152" t="n">
-        <v>0.04328541332893954</v>
+        <v>0.1021050865413748</v>
       </c>
       <c r="D152" t="n">
-        <v>0.0252498244418814</v>
+        <v>0.04712542455755762</v>
       </c>
       <c r="E152" t="n">
-        <v>0.003607117777411628</v>
+        <v>0.007854237426259602</v>
       </c>
     </row>
     <row r="153">
@@ -3027,16 +3027,16 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>0.8444790927439518</v>
+        <v>0.8569216905076187</v>
       </c>
       <c r="C153" t="n">
-        <v>0.0933125443536289</v>
+        <v>0.09300090117004786</v>
       </c>
       <c r="D153" t="n">
-        <v>0.05443231753961686</v>
+        <v>0.04292349284771439</v>
       </c>
       <c r="E153" t="n">
-        <v>0.007776045362802408</v>
+        <v>0.007153915474619067</v>
       </c>
     </row>
     <row r="154">
@@ -3044,16 +3044,16 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>0.8097623816801237</v>
+        <v>0.790857522573529</v>
       </c>
       <c r="C154" t="n">
-        <v>0.1141425709919258</v>
+        <v>0.1359426103272061</v>
       </c>
       <c r="D154" t="n">
-        <v>0.06658316641195669</v>
+        <v>0.06274274322794128</v>
       </c>
       <c r="E154" t="n">
-        <v>0.009511880915993816</v>
+        <v>0.01045712387132355</v>
       </c>
     </row>
     <row r="155">
@@ -3061,16 +3061,16 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>0.7937659239244834</v>
+        <v>0.8414803609992993</v>
       </c>
       <c r="C155" t="n">
-        <v>0.1237404456453099</v>
+        <v>0.1030377653504554</v>
       </c>
       <c r="D155" t="n">
-        <v>0.0721819266264308</v>
+        <v>0.04755589170021019</v>
       </c>
       <c r="E155" t="n">
-        <v>0.01031170380377583</v>
+        <v>0.007925981950035034</v>
       </c>
     </row>
     <row r="156">
@@ -3078,16 +3078,16 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>0.7909016834473412</v>
+        <v>0.8015437041339832</v>
       </c>
       <c r="C156" t="n">
-        <v>0.1254589899315952</v>
+        <v>0.1289965923129109</v>
       </c>
       <c r="D156" t="n">
-        <v>0.07318441079343056</v>
+        <v>0.05953688875980503</v>
       </c>
       <c r="E156" t="n">
-        <v>0.01045491582763294</v>
+        <v>0.009922814793300839</v>
       </c>
     </row>
     <row r="157">
@@ -3095,16 +3095,16 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>0.8620094683621061</v>
+        <v>0.8956591339603351</v>
       </c>
       <c r="C157" t="n">
-        <v>0.08279431898273633</v>
+        <v>0.06782156292578216</v>
       </c>
       <c r="D157" t="n">
-        <v>0.04829668607326285</v>
+        <v>0.03130225981189946</v>
       </c>
       <c r="E157" t="n">
-        <v>0.006899526581894694</v>
+        <v>0.005217043301983243</v>
       </c>
     </row>
     <row r="158">
@@ -3112,16 +3112,16 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>0.8734312813275195</v>
+        <v>0.812423729553184</v>
       </c>
       <c r="C158" t="n">
-        <v>0.07594123120348832</v>
+        <v>0.1219245757904304</v>
       </c>
       <c r="D158" t="n">
-        <v>0.04429905153536819</v>
+        <v>0.0562728811340448</v>
       </c>
       <c r="E158" t="n">
-        <v>0.006328435933624027</v>
+        <v>0.009378813522340802</v>
       </c>
     </row>
   </sheetData>
